--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="348">
   <si>
     <t>source_file_name</t>
   </si>
@@ -250,6 +250,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-25-november-2022_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-august-2022_0.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-may-2023_0.pdf</t>
   </si>
   <si>
@@ -520,6 +523,9 @@
     <t>20  November  2022</t>
   </si>
   <si>
+    <t>21  August  2022</t>
+  </si>
+  <si>
     <t>21  May  2023</t>
   </si>
   <si>
@@ -751,6 +757,9 @@
     <t>33,184</t>
   </si>
   <si>
+    <t>24,204</t>
+  </si>
+  <si>
     <t>65,609</t>
   </si>
   <si>
@@ -968,6 +977,9 @@
   </si>
   <si>
     <t>954</t>
+  </si>
+  <si>
+    <t>575</t>
   </si>
   <si>
     <t>4,749</t>
@@ -1403,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1445,16 +1457,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1462,16 +1474,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1479,16 +1491,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1496,16 +1508,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1513,16 +1525,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1530,16 +1542,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1547,16 +1559,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1564,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1578,16 +1590,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1595,16 +1607,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1612,16 +1624,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1643,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1657,16 +1669,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1674,16 +1686,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1691,16 +1703,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1708,16 +1720,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1725,16 +1737,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1742,16 +1754,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1759,7 +1771,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1773,16 +1785,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1790,7 +1802,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1804,16 +1816,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1835,16 +1847,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1852,16 +1864,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E28" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1869,16 +1881,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1886,16 +1898,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1903,16 +1915,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1920,16 +1932,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1937,16 +1949,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1954,16 +1966,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1971,16 +1983,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1988,16 +2000,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2005,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2019,16 +2031,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2036,16 +2048,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2053,16 +2065,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2070,7 +2082,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2084,7 +2096,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2098,16 +2110,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2115,16 +2127,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2132,16 +2144,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2149,16 +2161,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2166,16 +2178,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2183,16 +2195,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2200,16 +2212,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2217,16 +2229,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2234,16 +2246,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2251,7 +2263,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2265,16 +2277,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E53" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2282,16 +2294,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2313,16 +2325,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E56" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2330,7 +2342,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2344,16 +2356,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2361,16 +2373,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2378,16 +2390,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2395,16 +2407,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2412,16 +2424,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2429,16 +2441,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2446,16 +2458,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E64" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2463,16 +2475,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2480,16 +2492,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2497,7 +2509,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2511,16 +2523,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2528,16 +2540,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E69" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2545,16 +2557,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2562,7 +2574,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2576,16 +2588,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2593,7 +2605,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2607,16 +2619,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2624,16 +2636,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2641,16 +2653,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2658,47 +2670,47 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
       <c r="C78" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" t="s">
-        <v>171</v>
-      </c>
       <c r="C79" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" t="s">
-        <v>248</v>
-      </c>
-      <c r="E79" t="s">
-        <v>321</v>
+        <v>196</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2706,47 +2718,47 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" t="s">
-        <v>217</v>
-      </c>
-      <c r="E82" t="s">
-        <v>290</v>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2754,47 +2766,47 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
       <c r="C84" t="s">
-        <v>194</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" t="s">
-        <v>174</v>
-      </c>
       <c r="C85" t="s">
-        <v>195</v>
-      </c>
-      <c r="D85" t="s">
-        <v>251</v>
-      </c>
-      <c r="E85" t="s">
-        <v>324</v>
+        <v>196</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2802,16 +2814,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E86" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2819,16 +2831,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="E87" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2836,47 +2848,47 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
       <c r="C89" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="D89" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>177</v>
-      </c>
       <c r="C90" t="s">
-        <v>195</v>
-      </c>
-      <c r="D90" t="s">
-        <v>254</v>
-      </c>
-      <c r="E90" t="s">
-        <v>327</v>
+        <v>196</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2884,16 +2896,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2901,16 +2913,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2918,16 +2930,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E93" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2935,78 +2947,78 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E94" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" t="s">
-        <v>215</v>
-      </c>
-      <c r="E96" t="s">
-        <v>288</v>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
       <c r="C97" t="s">
         <v>197</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+      <c r="D97" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" t="s">
-        <v>182</v>
-      </c>
       <c r="C98" t="s">
-        <v>195</v>
-      </c>
-      <c r="D98" t="s">
-        <v>259</v>
-      </c>
-      <c r="E98" t="s">
-        <v>332</v>
+        <v>199</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3014,16 +3026,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D99" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3031,16 +3043,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="E100" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3048,16 +3060,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E101" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3065,16 +3077,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D102" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E102" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3082,16 +3094,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D103" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="E103" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3099,109 +3111,109 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D104" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="E104" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
       <c r="C105" t="s">
-        <v>194</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" t="s">
-        <v>187</v>
-      </c>
       <c r="C106" t="s">
-        <v>195</v>
-      </c>
-      <c r="D106" t="s">
-        <v>264</v>
-      </c>
-      <c r="E106" t="s">
-        <v>337</v>
+        <v>196</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
+        <v>197</v>
+      </c>
+      <c r="D107" t="s">
+        <v>267</v>
+      </c>
+      <c r="E107" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" t="s">
-        <v>265</v>
-      </c>
-      <c r="E108" t="s">
-        <v>338</v>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
       <c r="C109" t="s">
-        <v>194</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="D109" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" t="s">
-        <v>138</v>
-      </c>
       <c r="C110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D110" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110" t="s">
-        <v>288</v>
+        <v>196</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3209,16 +3221,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D111" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="E111" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3226,16 +3238,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D112" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="E112" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3243,16 +3255,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="E113" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3260,16 +3272,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3277,16 +3289,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D115" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="E115" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3294,16 +3306,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D116" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="E116" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3311,16 +3323,33 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" t="s">
+        <v>272</v>
+      </c>
+      <c r="E117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
         <v>195</v>
       </c>
-      <c r="D117" t="s">
-        <v>270</v>
-      </c>
-      <c r="E117" t="s">
-        <v>343</v>
+      <c r="C118" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="352">
   <si>
     <t>source_file_name</t>
   </si>
@@ -76,6 +76,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-11-november-2022.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-12-april-2024_0.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-12-august-2022.pdf</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>6  November  2022</t>
   </si>
   <si>
+    <t>31  March  2024</t>
+  </si>
+  <si>
     <t>7  August  2022</t>
   </si>
   <si>
@@ -646,6 +652,9 @@
     <t>30,807</t>
   </si>
   <si>
+    <t>107,382</t>
+  </si>
+  <si>
     <t>21,069</t>
   </si>
   <si>
@@ -866,6 +875,9 @@
   </si>
   <si>
     <t>805</t>
+  </si>
+  <si>
+    <t>10,833</t>
   </si>
   <si>
     <t>494</t>
@@ -1415,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1457,16 +1469,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1474,16 +1486,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1491,16 +1503,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1508,16 +1520,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1525,16 +1537,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1542,16 +1554,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1559,16 +1571,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1576,7 +1588,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1590,16 +1602,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1607,16 +1619,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1624,16 +1636,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1655,7 +1667,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1669,16 +1681,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1686,16 +1698,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1703,16 +1715,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1720,16 +1732,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1737,16 +1749,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1754,109 +1766,109 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
       <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
       <c r="C23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" t="s">
-        <v>288</v>
+        <v>198</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
       <c r="C24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
       <c r="C25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>289</v>
+        <v>198</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" t="s">
-        <v>290</v>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1864,16 +1876,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1881,16 +1893,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1898,16 +1910,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1915,16 +1927,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1932,16 +1944,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1949,16 +1961,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1966,16 +1978,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1983,16 +1995,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2000,47 +2012,47 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
       <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
       <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" t="s">
-        <v>299</v>
+        <v>200</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2048,16 +2060,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2065,30 +2077,33 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
       <c r="C41" t="s">
         <v>199</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="D41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2096,7 +2111,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2109,17 +2124,14 @@
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
       <c r="C43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" t="s">
-        <v>301</v>
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2127,16 +2139,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2144,16 +2156,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2161,16 +2173,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2178,16 +2190,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2195,16 +2207,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2212,16 +2224,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2229,16 +2241,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2246,47 +2258,47 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
       <c r="C52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
       <c r="C53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E53" t="s">
-        <v>309</v>
+        <v>198</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2294,78 +2306,78 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" t="s">
-        <v>311</v>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
       <c r="C57" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
       <c r="C58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2373,16 +2385,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2390,16 +2402,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2407,16 +2419,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2424,16 +2436,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2441,16 +2453,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2458,16 +2470,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="E64" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2475,16 +2487,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2492,47 +2504,47 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
       <c r="C67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D67" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
-        <v>166</v>
-      </c>
       <c r="C68" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" t="s">
-        <v>318</v>
+        <v>199</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2540,16 +2552,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2557,78 +2569,78 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
       <c r="C71" t="s">
         <v>199</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
       <c r="C72" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" t="s">
         <v>201</v>
       </c>
-      <c r="E72" t="s">
-        <v>275</v>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
       <c r="C73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>168</v>
-      </c>
       <c r="C74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" t="s">
-        <v>246</v>
-      </c>
-      <c r="E74" t="s">
-        <v>320</v>
+        <v>200</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2636,16 +2648,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2653,16 +2665,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2670,16 +2682,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E77" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2687,47 +2699,47 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E78" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
       <c r="C79" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>173</v>
-      </c>
       <c r="C80" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" t="s">
-        <v>251</v>
-      </c>
-      <c r="E80" t="s">
-        <v>325</v>
+        <v>198</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2735,47 +2747,47 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E81" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
+      <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" t="s">
-        <v>293</v>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2783,47 +2795,47 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
       <c r="C85" t="s">
-        <v>196</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
-        <v>176</v>
-      </c>
       <c r="C86" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" t="s">
-        <v>328</v>
+        <v>198</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2831,16 +2843,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2848,16 +2860,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2865,47 +2877,47 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
       <c r="C90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D90" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
-        <v>179</v>
-      </c>
       <c r="C91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" t="s">
-        <v>257</v>
-      </c>
-      <c r="E91" t="s">
-        <v>331</v>
+        <v>198</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2913,16 +2925,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2930,16 +2942,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2947,16 +2959,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2964,78 +2976,78 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E95" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" t="s">
-        <v>217</v>
-      </c>
-      <c r="E97" t="s">
-        <v>291</v>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
       <c r="C98" t="s">
         <v>199</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
+      <c r="D98" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>184</v>
-      </c>
       <c r="C99" t="s">
-        <v>197</v>
-      </c>
-      <c r="D99" t="s">
-        <v>262</v>
-      </c>
-      <c r="E99" t="s">
-        <v>336</v>
+        <v>201</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3043,16 +3055,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3060,16 +3072,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E101" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3077,16 +3089,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E102" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3094,16 +3106,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E103" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3111,16 +3123,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D104" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="E104" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3128,109 +3140,109 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="E105" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
+      <c r="B106" t="s">
+        <v>190</v>
+      </c>
       <c r="C106" t="s">
-        <v>196</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
-        <v>189</v>
-      </c>
       <c r="C107" t="s">
-        <v>197</v>
-      </c>
-      <c r="D107" t="s">
-        <v>267</v>
-      </c>
-      <c r="E107" t="s">
-        <v>341</v>
+        <v>198</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" t="s">
+        <v>270</v>
+      </c>
+      <c r="E108" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>197</v>
-      </c>
-      <c r="D109" t="s">
-        <v>268</v>
-      </c>
-      <c r="E109" t="s">
-        <v>342</v>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
+      <c r="B110" t="s">
+        <v>192</v>
+      </c>
       <c r="C110" t="s">
-        <v>196</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D110" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111" t="s">
-        <v>139</v>
-      </c>
       <c r="C111" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E111" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3238,16 +3250,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D112" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="E112" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3255,16 +3267,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D113" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="E113" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3272,16 +3284,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="E114" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3289,16 +3301,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D115" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E115" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3306,16 +3318,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3323,16 +3335,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D117" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="E117" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3340,16 +3352,33 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" t="s">
+        <v>275</v>
+      </c>
+      <c r="E118" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
         <v>197</v>
       </c>
-      <c r="D118" t="s">
-        <v>273</v>
-      </c>
-      <c r="E118" t="s">
-        <v>347</v>
+      <c r="C119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" t="s">
+        <v>276</v>
+      </c>
+      <c r="E119" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="353">
   <si>
     <t>source_file_name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-18-november-2022.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-19-april-2024_0.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-19-august-2022_0.pdf</t>
@@ -1427,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1469,16 +1472,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1486,16 +1489,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1503,16 +1506,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1520,16 +1523,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1537,16 +1540,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1554,16 +1557,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1571,16 +1574,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1588,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1602,16 +1605,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1619,16 +1622,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1636,16 +1639,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1667,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1681,16 +1684,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1698,16 +1701,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1715,16 +1718,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1732,16 +1735,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1749,16 +1752,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1766,16 +1769,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1783,16 +1786,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1800,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1814,16 +1817,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1831,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1845,16 +1848,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1876,16 +1879,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1893,16 +1896,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1910,16 +1913,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1927,16 +1930,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1944,16 +1947,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1961,16 +1964,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1978,16 +1981,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1995,16 +1998,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2012,16 +2015,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2029,16 +2032,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2046,7 +2049,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2060,16 +2063,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2077,16 +2080,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2094,16 +2097,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2111,7 +2114,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2125,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2139,16 +2142,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2156,16 +2159,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2173,16 +2176,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2190,16 +2193,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E47" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2210,7 +2213,7 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
         <v>233</v>
@@ -2227,7 +2230,7 @@
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
         <v>234</v>
@@ -2244,7 +2247,7 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
         <v>235</v>
@@ -2261,7 +2264,7 @@
         <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>236</v>
@@ -2278,7 +2281,7 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
         <v>237</v>
@@ -2291,31 +2294,31 @@
       <c r="A53" t="s">
         <v>56</v>
       </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
       <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
       <c r="C54" t="s">
         <v>199</v>
       </c>
-      <c r="D54" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" t="s">
-        <v>313</v>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2326,7 +2329,7 @@
         <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
         <v>239</v>
@@ -2339,62 +2342,62 @@
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>199</v>
-      </c>
-      <c r="D57" t="s">
-        <v>240</v>
-      </c>
-      <c r="E57" t="s">
-        <v>315</v>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
       <c r="C58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
       <c r="C59" t="s">
         <v>199</v>
       </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59" t="s">
-        <v>295</v>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2402,16 +2405,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2419,16 +2422,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2436,16 +2439,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2456,7 +2459,7 @@
         <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
         <v>243</v>
@@ -2470,16 +2473,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2487,16 +2490,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2507,7 +2510,7 @@
         <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
         <v>245</v>
@@ -2524,7 +2527,7 @@
         <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
         <v>246</v>
@@ -2537,31 +2540,31 @@
       <c r="A68" t="s">
         <v>71</v>
       </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
       <c r="C68" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
       <c r="C69" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" t="s">
-        <v>322</v>
+        <v>200</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2569,16 +2572,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2586,78 +2589,78 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
       <c r="C72" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D72" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
-        <v>124</v>
-      </c>
       <c r="C73" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
       <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
       <c r="C75" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" t="s">
-        <v>324</v>
+        <v>201</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2668,7 +2671,7 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
         <v>250</v>
@@ -2685,7 +2688,7 @@
         <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
         <v>251</v>
@@ -2702,7 +2705,7 @@
         <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
         <v>252</v>
@@ -2719,7 +2722,7 @@
         <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
@@ -2732,31 +2735,31 @@
       <c r="A80" t="s">
         <v>83</v>
       </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
       <c r="C80" t="s">
-        <v>198</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
-        <v>175</v>
-      </c>
       <c r="C81" t="s">
         <v>199</v>
       </c>
-      <c r="D81" t="s">
-        <v>254</v>
-      </c>
-      <c r="E81" t="s">
-        <v>329</v>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2767,7 +2770,7 @@
         <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
         <v>255</v>
@@ -2780,31 +2783,31 @@
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" t="s">
-        <v>297</v>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2812,47 +2815,47 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
       <c r="C86" t="s">
-        <v>198</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D86" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" t="s">
-        <v>178</v>
-      </c>
       <c r="C87" t="s">
         <v>199</v>
       </c>
-      <c r="D87" t="s">
-        <v>257</v>
-      </c>
-      <c r="E87" t="s">
-        <v>332</v>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2863,7 +2866,7 @@
         <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D88" t="s">
         <v>258</v>
@@ -2877,16 +2880,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2894,47 +2897,47 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
       <c r="C91" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" t="s">
-        <v>181</v>
-      </c>
       <c r="C92" t="s">
         <v>199</v>
       </c>
-      <c r="D92" t="s">
-        <v>260</v>
-      </c>
-      <c r="E92" t="s">
-        <v>335</v>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2945,7 +2948,7 @@
         <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
         <v>261</v>
@@ -2962,7 +2965,7 @@
         <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D94" t="s">
         <v>262</v>
@@ -2979,7 +2982,7 @@
         <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
         <v>263</v>
@@ -2996,7 +2999,7 @@
         <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s">
         <v>264</v>
@@ -3009,62 +3012,62 @@
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" t="s">
-        <v>220</v>
-      </c>
-      <c r="E98" t="s">
-        <v>295</v>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
+      <c r="B99" t="s">
+        <v>142</v>
+      </c>
       <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D99" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100" t="s">
-        <v>186</v>
-      </c>
       <c r="C100" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" t="s">
-        <v>265</v>
-      </c>
-      <c r="E100" t="s">
-        <v>340</v>
+        <v>202</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3072,16 +3075,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="E101" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3089,16 +3092,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="E102" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3109,7 +3112,7 @@
         <v>188</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D103" t="s">
         <v>267</v>
@@ -3126,7 +3129,7 @@
         <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
         <v>268</v>
@@ -3140,16 +3143,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="E105" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3157,109 +3160,109 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D106" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="E106" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
+      <c r="B107" t="s">
+        <v>191</v>
+      </c>
       <c r="C107" t="s">
-        <v>198</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D107" t="s">
+        <v>270</v>
+      </c>
+      <c r="E107" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" t="s">
-        <v>191</v>
-      </c>
       <c r="C108" t="s">
         <v>199</v>
       </c>
-      <c r="D108" t="s">
-        <v>270</v>
-      </c>
-      <c r="E108" t="s">
-        <v>345</v>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" t="s">
+        <v>271</v>
+      </c>
+      <c r="E109" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" t="s">
-        <v>199</v>
-      </c>
-      <c r="D110" t="s">
-        <v>271</v>
-      </c>
-      <c r="E110" t="s">
-        <v>346</v>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
+      <c r="B111" t="s">
+        <v>193</v>
+      </c>
       <c r="C111" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D111" t="s">
+        <v>272</v>
+      </c>
+      <c r="E111" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" t="s">
-        <v>141</v>
-      </c>
       <c r="C112" t="s">
         <v>199</v>
       </c>
-      <c r="D112" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" t="s">
-        <v>295</v>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3267,16 +3270,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D113" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="E113" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3284,16 +3287,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3301,16 +3304,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D115" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E115" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3321,7 +3324,7 @@
         <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D116" t="s">
         <v>274</v>
@@ -3335,16 +3338,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D117" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3352,16 +3355,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D118" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="E118" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3372,13 +3375,30 @@
         <v>197</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D119" t="s">
         <v>276</v>
       </c>
       <c r="E119" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" t="s">
+        <v>277</v>
+      </c>
+      <c r="E120" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="354">
   <si>
     <t>source_file_name</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-25-november-2022_0.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-april-2024.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-august-2022_0.pdf</t>
@@ -1430,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1458,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1472,16 +1475,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1489,16 +1492,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1506,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1523,16 +1526,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1540,16 +1543,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1557,16 +1560,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1574,16 +1577,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1591,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1605,16 +1608,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1622,16 +1625,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1639,16 +1642,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1670,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1684,16 +1687,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1701,16 +1704,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1718,16 +1721,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1735,16 +1738,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1752,16 +1755,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1769,16 +1772,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1786,16 +1789,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1803,7 +1806,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1817,16 +1820,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1834,7 +1837,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1848,16 +1851,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1879,16 +1882,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1896,16 +1899,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1913,16 +1916,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1930,16 +1933,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1947,16 +1950,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1964,16 +1967,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1981,16 +1984,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1998,16 +2001,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2015,16 +2018,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2032,16 +2035,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2049,7 +2052,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2063,16 +2066,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2080,16 +2083,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2097,16 +2100,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2114,7 +2117,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2128,7 +2131,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2142,16 +2145,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2159,16 +2162,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2176,16 +2179,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2193,16 +2196,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2210,16 +2213,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2227,16 +2230,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2244,16 +2247,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2261,16 +2264,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2278,16 +2281,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2295,16 +2298,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2312,7 +2315,7 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2326,16 +2329,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2343,16 +2346,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2374,16 +2377,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2391,7 +2394,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2405,16 +2408,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2422,16 +2425,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2439,16 +2442,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2456,16 +2459,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2473,16 +2476,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2490,16 +2493,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2507,16 +2510,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2524,16 +2527,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2541,16 +2544,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2558,7 +2561,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2572,16 +2575,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2589,16 +2592,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2606,16 +2609,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2623,7 +2626,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2637,16 +2640,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2654,7 +2657,7 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2668,16 +2671,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2685,16 +2688,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2705,7 +2708,7 @@
         <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
         <v>252</v>
@@ -2722,7 +2725,7 @@
         <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
@@ -2739,7 +2742,7 @@
         <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D80" t="s">
         <v>254</v>
@@ -2752,31 +2755,31 @@
       <c r="A81" t="s">
         <v>84</v>
       </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
       <c r="C81" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
-        <v>176</v>
-      </c>
       <c r="C82" t="s">
         <v>200</v>
       </c>
-      <c r="D82" t="s">
-        <v>255</v>
-      </c>
-      <c r="E82" t="s">
-        <v>330</v>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2787,7 +2790,7 @@
         <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
         <v>256</v>
@@ -2800,31 +2803,31 @@
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
+      <c r="B84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" t="s">
-        <v>298</v>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2832,47 +2835,47 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
       <c r="C87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D87" t="s">
+        <v>258</v>
+      </c>
+      <c r="E87" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
-        <v>179</v>
-      </c>
       <c r="C88" t="s">
         <v>200</v>
       </c>
-      <c r="D88" t="s">
-        <v>258</v>
-      </c>
-      <c r="E88" t="s">
-        <v>333</v>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2883,7 +2886,7 @@
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
         <v>259</v>
@@ -2897,16 +2900,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="E90" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2914,47 +2917,47 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
       <c r="C92" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" t="s">
-        <v>182</v>
-      </c>
       <c r="C93" t="s">
         <v>200</v>
       </c>
-      <c r="D93" t="s">
-        <v>261</v>
-      </c>
-      <c r="E93" t="s">
-        <v>336</v>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2965,7 +2968,7 @@
         <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
         <v>262</v>
@@ -2982,7 +2985,7 @@
         <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
         <v>263</v>
@@ -2999,7 +3002,7 @@
         <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
         <v>264</v>
@@ -3016,7 +3019,7 @@
         <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D97" t="s">
         <v>265</v>
@@ -3029,62 +3032,62 @@
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
+      <c r="B98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E98" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" t="s">
-        <v>296</v>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
       <c r="C100" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D100" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
-        <v>187</v>
-      </c>
       <c r="C101" t="s">
-        <v>200</v>
-      </c>
-      <c r="D101" t="s">
-        <v>266</v>
-      </c>
-      <c r="E101" t="s">
-        <v>341</v>
+        <v>203</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3092,16 +3095,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="E102" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3109,16 +3112,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3129,7 +3132,7 @@
         <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D104" t="s">
         <v>268</v>
@@ -3146,7 +3149,7 @@
         <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
         <v>269</v>
@@ -3160,16 +3163,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="E106" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3177,109 +3180,109 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="E107" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
+      <c r="B108" t="s">
+        <v>192</v>
+      </c>
       <c r="C108" t="s">
-        <v>199</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D108" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" t="s">
-        <v>192</v>
-      </c>
       <c r="C109" t="s">
         <v>200</v>
       </c>
-      <c r="D109" t="s">
-        <v>271</v>
-      </c>
-      <c r="E109" t="s">
-        <v>346</v>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" t="s">
-        <v>200</v>
-      </c>
-      <c r="D111" t="s">
-        <v>272</v>
-      </c>
-      <c r="E111" t="s">
-        <v>347</v>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
       <c r="C112" t="s">
-        <v>199</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" t="s">
-        <v>142</v>
-      </c>
       <c r="C113" t="s">
         <v>200</v>
       </c>
-      <c r="D113" t="s">
-        <v>221</v>
-      </c>
-      <c r="E113" t="s">
-        <v>296</v>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3287,16 +3290,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D114" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="E114" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3304,16 +3307,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D115" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="E115" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3321,16 +3324,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D116" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="E116" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3341,7 +3344,7 @@
         <v>196</v>
       </c>
       <c r="C117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D117" t="s">
         <v>275</v>
@@ -3355,16 +3358,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D118" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3372,16 +3375,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="E119" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3392,13 +3395,30 @@
         <v>198</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D120" t="s">
         <v>277</v>
       </c>
       <c r="E120" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E121" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="359">
   <si>
     <t>source_file_name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-10-march-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-10-may-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-10-november-2023_0.pdf</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-3-march-2023_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-3-may-2024_0.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-3-november-2023.pdf</t>
   </si>
   <si>
@@ -415,6 +421,9 @@
     <t>5  March  2023</t>
   </si>
   <si>
+    <t>30  April  2024</t>
+  </si>
+  <si>
     <t>6  August  2023</t>
   </si>
   <si>
@@ -652,6 +661,9 @@
     <t>54,310</t>
   </si>
   <si>
+    <t>110,995</t>
+  </si>
+  <si>
     <t>75,463</t>
   </si>
   <si>
@@ -875,6 +887,9 @@
   </si>
   <si>
     <t>3,076</t>
+  </si>
+  <si>
+    <t>11,562</t>
   </si>
   <si>
     <t>6,154</t>
@@ -1433,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1475,16 +1490,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1492,16 +1507,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1509,16 +1524,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1526,16 +1541,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1543,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1560,16 +1575,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1577,16 +1592,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1594,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1608,16 +1623,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1625,16 +1640,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1642,38 +1657,41 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>202</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1686,17 +1704,14 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
       <c r="C16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" t="s">
-        <v>288</v>
+        <v>205</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1704,16 +1719,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1721,16 +1736,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1738,16 +1753,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1755,16 +1770,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1772,16 +1787,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1789,109 +1804,109 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
       <c r="C23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
       <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E24" t="s">
-        <v>294</v>
+        <v>203</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
       <c r="C25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
       <c r="C26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" t="s">
-        <v>295</v>
+        <v>203</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" t="s">
-        <v>296</v>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1899,16 +1914,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1916,16 +1931,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1933,16 +1948,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1950,16 +1965,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1967,16 +1982,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1984,16 +1999,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2001,16 +2016,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2018,16 +2033,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2035,47 +2050,47 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
       <c r="C38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
-        <v>151</v>
-      </c>
       <c r="C39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" t="s">
-        <v>305</v>
+        <v>205</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2083,16 +2098,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E40" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2100,30 +2115,33 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
       <c r="C42" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2131,7 +2149,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2144,17 +2162,14 @@
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
       <c r="C44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" t="s">
-        <v>307</v>
+        <v>205</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2162,16 +2177,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2179,16 +2194,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2196,16 +2211,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2213,16 +2228,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2230,16 +2245,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2247,16 +2262,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2264,16 +2279,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2281,16 +2296,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2298,47 +2313,47 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E53" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
       <c r="C54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D54" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
-        <v>161</v>
-      </c>
       <c r="C55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" t="s">
-        <v>240</v>
-      </c>
-      <c r="E55" t="s">
-        <v>315</v>
+        <v>203</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2346,78 +2361,78 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" t="s">
-        <v>317</v>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
       <c r="C59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
       <c r="C60" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" t="s">
-        <v>222</v>
-      </c>
-      <c r="E60" t="s">
-        <v>297</v>
+        <v>203</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2425,16 +2440,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E61" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2442,16 +2457,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2459,16 +2474,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2476,16 +2491,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2493,16 +2508,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2510,16 +2525,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2527,16 +2542,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2544,47 +2559,47 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E68" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
       <c r="C69" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
-        <v>170</v>
-      </c>
       <c r="C70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" t="s">
-        <v>324</v>
+        <v>204</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2592,16 +2607,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2609,78 +2624,78 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
       <c r="C73" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D73" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>126</v>
-      </c>
       <c r="C74" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" t="s">
-        <v>280</v>
+        <v>206</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
       <c r="C75" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
-        <v>172</v>
-      </c>
       <c r="C76" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" t="s">
-        <v>326</v>
+        <v>205</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2688,16 +2703,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2705,16 +2720,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2722,16 +2737,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2739,16 +2754,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2756,47 +2771,47 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
       <c r="C82" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D82" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>177</v>
-      </c>
       <c r="C83" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" t="s">
-        <v>331</v>
+        <v>203</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2804,47 +2819,47 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" t="s">
-        <v>299</v>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2852,47 +2867,47 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
       <c r="C88" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
       <c r="C89" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" t="s">
-        <v>259</v>
-      </c>
-      <c r="E89" t="s">
-        <v>334</v>
+        <v>203</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2900,16 +2915,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2917,16 +2932,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="E91" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2934,47 +2949,47 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
       <c r="C93" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
-        <v>183</v>
-      </c>
       <c r="C94" t="s">
-        <v>201</v>
-      </c>
-      <c r="D94" t="s">
-        <v>262</v>
-      </c>
-      <c r="E94" t="s">
-        <v>337</v>
+        <v>203</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2982,16 +2997,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E95" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2999,16 +3014,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E96" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3016,16 +3031,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3033,30 +3048,33 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
+      <c r="B99" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3064,24 +3082,24 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="C101" t="s">
-        <v>203</v>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3095,33 +3113,30 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="E102" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" t="s">
-        <v>145</v>
-      </c>
       <c r="C103" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103" t="s">
-        <v>224</v>
-      </c>
-      <c r="E103" t="s">
-        <v>299</v>
+        <v>206</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3129,16 +3144,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E104" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3146,16 +3161,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D105" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3163,16 +3178,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3180,16 +3195,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D107" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3197,30 +3212,33 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
       <c r="C109" t="s">
-        <v>200</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="D109" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3228,24 +3246,24 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="C111">
-        <v>0</v>
+      <c r="C111" t="s">
+        <v>203</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3259,24 +3277,24 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="C113" t="s">
-        <v>200</v>
+      <c r="C113">
+        <v>0</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3290,33 +3308,30 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>195</v>
-      </c>
       <c r="C115" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" t="s">
-        <v>274</v>
-      </c>
-      <c r="E115" t="s">
-        <v>349</v>
+        <v>203</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3324,16 +3339,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E116" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3341,16 +3356,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E117" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3358,16 +3373,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="E118" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3375,16 +3390,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3392,16 +3407,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3409,16 +3424,50 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
         <v>201</v>
       </c>
-      <c r="D121" t="s">
-        <v>278</v>
-      </c>
-      <c r="E121" t="s">
-        <v>353</v>
+      <c r="C122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>281</v>
+      </c>
+      <c r="E122" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" t="s">
+        <v>282</v>
+      </c>
+      <c r="E123" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="360">
   <si>
     <t>source_file_name</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-17-march-2023_0.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-17-may-2024.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-17-november-2023_0.pdf</t>
@@ -1448,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1490,16 +1493,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1507,16 +1510,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1524,16 +1527,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1541,16 +1544,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1558,16 +1561,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1575,16 +1578,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1592,16 +1595,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1609,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1623,16 +1626,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1640,16 +1643,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1657,16 +1660,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1674,16 +1677,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1705,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1719,16 +1722,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1736,16 +1739,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1753,16 +1756,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1770,16 +1773,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1787,16 +1790,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1804,16 +1807,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1821,16 +1824,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1838,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1852,16 +1855,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1869,7 +1872,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1883,16 +1886,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1914,16 +1917,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1931,16 +1934,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1948,16 +1951,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1965,16 +1968,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1982,16 +1985,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1999,16 +2002,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2016,16 +2019,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2033,16 +2036,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2050,16 +2053,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2067,16 +2070,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2084,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2098,16 +2101,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2115,16 +2118,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2132,30 +2135,33 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
       <c r="C43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2163,7 +2169,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2176,17 +2182,14 @@
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
-        <v>156</v>
-      </c>
       <c r="C45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" t="s">
-        <v>312</v>
+        <v>206</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2194,16 +2197,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2211,16 +2214,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2228,16 +2231,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2245,16 +2248,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2265,7 +2268,7 @@
         <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
         <v>239</v>
@@ -2282,7 +2285,7 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
         <v>240</v>
@@ -2299,7 +2302,7 @@
         <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
         <v>241</v>
@@ -2316,7 +2319,7 @@
         <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>242</v>
@@ -2333,7 +2336,7 @@
         <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D54" t="s">
         <v>243</v>
@@ -2346,31 +2349,31 @@
       <c r="A55" t="s">
         <v>58</v>
       </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
       <c r="C55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" t="s">
-        <v>164</v>
-      </c>
       <c r="C56" t="s">
         <v>204</v>
       </c>
-      <c r="D56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" t="s">
-        <v>320</v>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2381,7 +2384,7 @@
         <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
         <v>245</v>
@@ -2394,62 +2397,62 @@
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" t="s">
-        <v>246</v>
-      </c>
-      <c r="E59" t="s">
-        <v>322</v>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
       <c r="C60" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
-        <v>146</v>
-      </c>
       <c r="C61" t="s">
         <v>204</v>
       </c>
-      <c r="D61" t="s">
-        <v>226</v>
-      </c>
-      <c r="E61" t="s">
-        <v>302</v>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2457,16 +2460,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2474,16 +2477,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2491,16 +2494,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2511,7 +2514,7 @@
         <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" t="s">
         <v>249</v>
@@ -2525,16 +2528,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2542,16 +2545,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2562,7 +2565,7 @@
         <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s">
         <v>251</v>
@@ -2579,7 +2582,7 @@
         <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
         <v>252</v>
@@ -2592,31 +2595,31 @@
       <c r="A70" t="s">
         <v>73</v>
       </c>
+      <c r="B70" t="s">
+        <v>173</v>
+      </c>
       <c r="C70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
-        <v>173</v>
-      </c>
       <c r="C71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71" t="s">
-        <v>329</v>
+        <v>205</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2624,16 +2627,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2641,78 +2644,78 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
       <c r="C74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D74" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
-        <v>128</v>
-      </c>
       <c r="C75" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" t="s">
-        <v>208</v>
-      </c>
-      <c r="E75" t="s">
-        <v>284</v>
+        <v>207</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
       <c r="C76" t="s">
         <v>205</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
+      <c r="D76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" t="s">
-        <v>175</v>
-      </c>
       <c r="C77" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" t="s">
-        <v>331</v>
+        <v>206</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2720,16 +2723,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E78" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2737,16 +2740,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2757,7 +2760,7 @@
         <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
         <v>257</v>
@@ -2774,7 +2777,7 @@
         <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
         <v>258</v>
@@ -2791,7 +2794,7 @@
         <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
         <v>259</v>
@@ -2804,31 +2807,31 @@
       <c r="A83" t="s">
         <v>86</v>
       </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
       <c r="C83" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
       <c r="C84" t="s">
         <v>204</v>
       </c>
-      <c r="D84" t="s">
-        <v>260</v>
-      </c>
-      <c r="E84" t="s">
-        <v>336</v>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2839,7 +2842,7 @@
         <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
         <v>261</v>
@@ -2852,31 +2855,31 @@
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
+      <c r="B86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87" t="s">
-        <v>228</v>
-      </c>
-      <c r="E87" t="s">
-        <v>304</v>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2884,47 +2887,47 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
       <c r="C89" t="s">
-        <v>203</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>183</v>
-      </c>
       <c r="C90" t="s">
         <v>204</v>
       </c>
-      <c r="D90" t="s">
-        <v>263</v>
-      </c>
-      <c r="E90" t="s">
-        <v>339</v>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2935,7 +2938,7 @@
         <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
         <v>264</v>
@@ -2949,16 +2952,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="E92" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2966,47 +2969,47 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
       <c r="C94" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
-        <v>186</v>
-      </c>
       <c r="C95" t="s">
         <v>204</v>
       </c>
-      <c r="D95" t="s">
-        <v>266</v>
-      </c>
-      <c r="E95" t="s">
-        <v>342</v>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3014,16 +3017,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3031,16 +3034,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3051,7 +3054,7 @@
         <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
         <v>268</v>
@@ -3068,7 +3071,7 @@
         <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D99" t="s">
         <v>269</v>
@@ -3085,7 +3088,7 @@
         <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D100" t="s">
         <v>270</v>
@@ -3098,62 +3101,62 @@
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" t="s">
-        <v>204</v>
-      </c>
-      <c r="D102" t="s">
-        <v>226</v>
-      </c>
-      <c r="E102" t="s">
-        <v>302</v>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
       <c r="C103" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
-        <v>191</v>
-      </c>
       <c r="C104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" t="s">
-        <v>271</v>
-      </c>
-      <c r="E104" t="s">
-        <v>347</v>
+        <v>207</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3161,16 +3164,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="E105" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3178,16 +3181,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3198,7 +3201,7 @@
         <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
         <v>273</v>
@@ -3215,7 +3218,7 @@
         <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D108" t="s">
         <v>274</v>
@@ -3229,16 +3232,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3246,109 +3249,109 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D110" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="E110" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
+      <c r="B111" t="s">
+        <v>196</v>
+      </c>
       <c r="C111" t="s">
-        <v>203</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D111" t="s">
+        <v>276</v>
+      </c>
+      <c r="E111" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" t="s">
-        <v>196</v>
-      </c>
       <c r="C112" t="s">
         <v>204</v>
       </c>
-      <c r="D112" t="s">
-        <v>276</v>
-      </c>
-      <c r="E112" t="s">
-        <v>352</v>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
+      <c r="B113" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" t="s">
+        <v>277</v>
+      </c>
+      <c r="E113" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D114" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114" t="s">
-        <v>353</v>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
+      <c r="B115" t="s">
+        <v>198</v>
+      </c>
       <c r="C115" t="s">
-        <v>203</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D115" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" t="s">
-        <v>146</v>
-      </c>
       <c r="C116" t="s">
         <v>204</v>
       </c>
-      <c r="D116" t="s">
-        <v>226</v>
-      </c>
-      <c r="E116" t="s">
-        <v>302</v>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3356,16 +3359,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D117" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="E117" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3373,16 +3376,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="E118" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3390,16 +3393,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E119" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3410,7 +3413,7 @@
         <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D120" t="s">
         <v>280</v>
@@ -3424,16 +3427,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3441,16 +3444,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D122" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="E122" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3461,13 +3464,30 @@
         <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D123" t="s">
         <v>282</v>
       </c>
       <c r="E123" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" t="s">
+        <v>205</v>
+      </c>
+      <c r="D124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="361">
   <si>
     <t>source_file_name</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-24-march-2023_0.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-24-may-2024.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-24-november-2023.pdf</t>
@@ -1451,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1493,16 +1496,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1510,16 +1513,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,16 +1530,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1544,16 +1547,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1561,16 +1564,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1578,16 +1581,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1595,16 +1598,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1612,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1626,16 +1629,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1643,16 +1646,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1660,16 +1663,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1677,16 +1680,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1708,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1722,16 +1725,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1739,16 +1742,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1756,16 +1759,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1773,16 +1776,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1790,16 +1793,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1807,16 +1810,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1824,16 +1827,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1841,7 +1844,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1855,16 +1858,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1872,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1886,16 +1889,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1917,16 +1920,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1934,16 +1937,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1951,16 +1954,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1968,16 +1971,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1985,16 +1988,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2002,16 +2005,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2019,16 +2022,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2036,16 +2039,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2053,16 +2056,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2070,16 +2073,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2087,7 +2090,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2101,16 +2104,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2118,16 +2121,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2135,16 +2138,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2152,16 +2155,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2169,7 +2172,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2183,7 +2186,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2197,16 +2200,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2214,16 +2217,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2231,16 +2234,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2248,16 +2251,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2265,16 +2268,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2282,16 +2285,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2299,16 +2302,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2316,16 +2319,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2333,16 +2336,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2350,16 +2353,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2367,7 +2370,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2381,16 +2384,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2398,16 +2401,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2429,16 +2432,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2446,7 +2449,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2460,16 +2463,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2477,16 +2480,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2494,16 +2497,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2511,16 +2514,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2528,16 +2531,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2545,16 +2548,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2562,16 +2565,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2579,16 +2582,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2596,16 +2599,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2613,7 +2616,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2627,16 +2630,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2644,16 +2647,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2661,78 +2664,78 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
       <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
-        <v>129</v>
-      </c>
       <c r="C76" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" t="s">
-        <v>209</v>
-      </c>
-      <c r="E76" t="s">
-        <v>285</v>
+        <v>208</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
       <c r="C77" t="s">
         <v>206</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
+      <c r="D77" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" t="s">
-        <v>176</v>
-      </c>
       <c r="C78" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" t="s">
-        <v>256</v>
-      </c>
-      <c r="E78" t="s">
-        <v>332</v>
+        <v>207</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2740,16 +2743,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="E79" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2757,16 +2760,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2777,7 +2780,7 @@
         <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
         <v>258</v>
@@ -2794,7 +2797,7 @@
         <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
         <v>259</v>
@@ -2811,7 +2814,7 @@
         <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
         <v>260</v>
@@ -2824,31 +2827,31 @@
       <c r="A84" t="s">
         <v>87</v>
       </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
       <c r="C84" t="s">
-        <v>204</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
       <c r="C85" t="s">
         <v>205</v>
       </c>
-      <c r="D85" t="s">
-        <v>261</v>
-      </c>
-      <c r="E85" t="s">
-        <v>337</v>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2859,7 +2862,7 @@
         <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
         <v>262</v>
@@ -2872,31 +2875,31 @@
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
-        <v>149</v>
-      </c>
-      <c r="C88" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" t="s">
-        <v>305</v>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2904,47 +2907,47 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
       <c r="C90" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
       <c r="C91" t="s">
         <v>205</v>
       </c>
-      <c r="D91" t="s">
-        <v>264</v>
-      </c>
-      <c r="E91" t="s">
-        <v>340</v>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2955,7 +2958,7 @@
         <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
         <v>265</v>
@@ -2969,16 +2972,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="E93" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2986,47 +2989,47 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
       <c r="C95" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
-        <v>187</v>
-      </c>
       <c r="C96" t="s">
         <v>205</v>
       </c>
-      <c r="D96" t="s">
-        <v>267</v>
-      </c>
-      <c r="E96" t="s">
-        <v>343</v>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3034,16 +3037,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="E97" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3051,16 +3054,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3071,7 +3074,7 @@
         <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
         <v>269</v>
@@ -3088,7 +3091,7 @@
         <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
         <v>270</v>
@@ -3105,7 +3108,7 @@
         <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D101" t="s">
         <v>271</v>
@@ -3118,62 +3121,62 @@
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
+      <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" t="s">
+        <v>272</v>
+      </c>
+      <c r="E102" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" t="s">
-        <v>147</v>
-      </c>
-      <c r="C103" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" t="s">
-        <v>227</v>
-      </c>
-      <c r="E103" t="s">
-        <v>303</v>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
       <c r="C104" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" t="s">
-        <v>192</v>
-      </c>
       <c r="C105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" t="s">
-        <v>272</v>
-      </c>
-      <c r="E105" t="s">
-        <v>348</v>
+        <v>208</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3181,16 +3184,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3198,16 +3201,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="E107" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3218,7 +3221,7 @@
         <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
         <v>274</v>
@@ -3235,7 +3238,7 @@
         <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
         <v>275</v>
@@ -3249,16 +3252,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3266,109 +3269,109 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="E111" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
+      <c r="B112" t="s">
+        <v>197</v>
+      </c>
       <c r="C112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D112" t="s">
+        <v>277</v>
+      </c>
+      <c r="E112" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" t="s">
-        <v>197</v>
-      </c>
       <c r="C113" t="s">
         <v>205</v>
       </c>
-      <c r="D113" t="s">
-        <v>277</v>
-      </c>
-      <c r="E113" t="s">
-        <v>353</v>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" t="s">
-        <v>205</v>
-      </c>
-      <c r="D115" t="s">
-        <v>278</v>
-      </c>
-      <c r="E115" t="s">
-        <v>354</v>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
       <c r="C116" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="D116" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" t="s">
-        <v>147</v>
-      </c>
       <c r="C117" t="s">
         <v>205</v>
       </c>
-      <c r="D117" t="s">
-        <v>227</v>
-      </c>
-      <c r="E117" t="s">
-        <v>303</v>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3376,16 +3379,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="E118" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3393,16 +3396,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="E119" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3410,16 +3413,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="E120" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3430,7 +3433,7 @@
         <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D121" t="s">
         <v>281</v>
@@ -3444,16 +3447,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3461,16 +3464,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="E123" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3481,13 +3484,30 @@
         <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D124" t="s">
         <v>283</v>
       </c>
       <c r="E124" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" t="s">
+        <v>284</v>
+      </c>
+      <c r="E125" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="363">
   <si>
     <t>source_file_name</t>
   </si>
@@ -331,6 +331,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-31-march-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-31-may-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-4-august-2023.pdf</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-7-january-2022_0.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-7-june-2024.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-7-october-2022_0.pdf</t>
@@ -1454,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1482,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1496,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1513,16 +1519,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1530,16 +1536,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1547,16 +1553,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1564,16 +1570,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1581,16 +1587,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1598,16 +1604,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1615,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1629,16 +1635,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1646,16 +1652,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1663,16 +1669,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1680,16 +1686,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1711,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1725,16 +1731,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1742,16 +1748,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1759,16 +1765,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1776,16 +1782,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1793,16 +1799,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1810,16 +1816,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1827,16 +1833,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1844,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1858,16 +1864,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1875,7 +1881,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1889,16 +1895,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1920,16 +1926,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1937,16 +1943,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1954,16 +1960,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1971,16 +1977,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1988,16 +1994,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2005,16 +2011,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2022,16 +2028,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2039,16 +2045,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2056,16 +2062,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2073,16 +2079,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2090,7 +2096,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2104,16 +2110,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2121,16 +2127,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2138,16 +2144,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2155,16 +2161,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2172,7 +2178,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2186,7 +2192,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2200,16 +2206,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2217,16 +2223,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2234,16 +2240,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2251,16 +2257,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2268,16 +2274,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2285,16 +2291,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2302,16 +2308,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2319,16 +2325,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2336,16 +2342,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2353,16 +2359,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2370,7 +2376,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2384,16 +2390,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2401,16 +2407,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2432,16 +2438,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2449,7 +2455,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2463,16 +2469,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2480,16 +2486,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2497,16 +2503,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2514,16 +2520,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E65" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2531,16 +2537,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2548,16 +2554,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2565,16 +2571,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E68" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2582,16 +2588,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2599,16 +2605,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E70" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2616,7 +2622,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2630,16 +2636,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2647,16 +2653,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2664,16 +2670,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2681,16 +2687,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E75" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2698,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2712,16 +2718,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2729,7 +2735,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2743,16 +2749,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2760,16 +2766,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E80" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2777,16 +2783,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2794,16 +2800,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E82" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2811,16 +2817,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E83" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2828,16 +2834,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2845,7 +2851,7 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2859,16 +2865,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2876,16 +2882,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2907,16 +2913,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2924,16 +2930,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2941,7 +2947,7 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2955,16 +2961,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2972,16 +2978,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2989,16 +2995,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3006,16 +3012,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3023,7 +3029,7 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3037,16 +3043,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E97" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3054,16 +3060,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E98" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3071,16 +3077,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3088,16 +3094,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3105,16 +3111,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3122,78 +3128,78 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="E102" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" t="s">
+        <v>274</v>
+      </c>
+      <c r="E103" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" t="s">
-        <v>206</v>
-      </c>
-      <c r="D104" t="s">
-        <v>228</v>
-      </c>
-      <c r="E104" t="s">
-        <v>304</v>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
       <c r="C105" t="s">
         <v>208</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
+      <c r="D105" t="s">
+        <v>230</v>
+      </c>
+      <c r="E105" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" t="s">
-        <v>193</v>
-      </c>
       <c r="C106" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" t="s">
-        <v>273</v>
-      </c>
-      <c r="E106" t="s">
-        <v>349</v>
+        <v>210</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3201,16 +3207,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3218,16 +3224,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="E108" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3235,16 +3241,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3252,16 +3258,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3269,16 +3275,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D111" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="E111" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3286,92 +3292,95 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="E112" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
       <c r="C113" t="s">
-        <v>205</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" t="s">
-        <v>198</v>
-      </c>
       <c r="C114" t="s">
-        <v>206</v>
-      </c>
-      <c r="D114" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" t="s">
-        <v>354</v>
+        <v>207</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" t="s">
+        <v>280</v>
+      </c>
+      <c r="E115" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" t="s">
-        <v>206</v>
-      </c>
-      <c r="D116" t="s">
-        <v>279</v>
-      </c>
-      <c r="E116" t="s">
-        <v>355</v>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
       <c r="C117" t="s">
-        <v>205</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3379,33 +3388,30 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="E118" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" t="s">
-        <v>200</v>
-      </c>
       <c r="C119" t="s">
-        <v>206</v>
-      </c>
-      <c r="D119" t="s">
-        <v>280</v>
-      </c>
-      <c r="E119" t="s">
-        <v>356</v>
+        <v>207</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3416,7 +3422,7 @@
         <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s">
         <v>230</v>
@@ -3430,16 +3436,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3447,16 +3453,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C122" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E122" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3464,16 +3470,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="E123" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3481,16 +3487,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D124" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3498,16 +3504,50 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" t="s">
+        <v>214</v>
+      </c>
+      <c r="E125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" t="s">
+        <v>285</v>
+      </c>
+      <c r="E126" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
         <v>206</v>
       </c>
-      <c r="D125" t="s">
-        <v>284</v>
-      </c>
-      <c r="E125" t="s">
-        <v>360</v>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>286</v>
+      </c>
+      <c r="E127" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="367">
   <si>
     <t>source_file_name</t>
   </si>
@@ -112,6 +112,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-14-january-2022.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-14-june-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-14-october-2022.pdf</t>
   </si>
   <si>
@@ -463,6 +466,9 @@
     <t>9  April  2023</t>
   </si>
   <si>
+    <t>31  May  2024</t>
+  </si>
+  <si>
     <t>9  October  2022</t>
   </si>
   <si>
@@ -703,6 +709,9 @@
     <t>57,713</t>
   </si>
   <si>
+    <t>119,461</t>
+  </si>
+  <si>
     <t>28,845</t>
   </si>
   <si>
@@ -929,6 +938,9 @@
   </si>
   <si>
     <t>3,571</t>
+  </si>
+  <si>
+    <t>13,469</t>
   </si>
   <si>
     <t>713</t>
@@ -1460,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1488,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1502,16 +1514,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1519,16 +1531,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1536,16 +1548,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1553,16 +1565,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1570,16 +1582,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1587,16 +1599,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1604,16 +1616,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1621,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1635,16 +1647,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1652,16 +1664,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1669,16 +1681,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1686,16 +1698,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1717,7 +1729,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1731,16 +1743,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1748,16 +1760,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1765,16 +1777,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1782,16 +1794,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1799,16 +1811,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1816,16 +1828,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1833,16 +1845,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1850,7 +1862,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1864,16 +1876,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1881,7 +1893,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1895,16 +1907,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1926,16 +1938,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1943,16 +1955,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1960,16 +1972,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1977,16 +1989,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1994,16 +2006,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2011,16 +2023,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2028,16 +2040,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2045,16 +2057,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2062,16 +2074,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2079,47 +2091,47 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
       <c r="C39" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
       <c r="C40" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" t="s">
-        <v>314</v>
+        <v>211</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2127,16 +2139,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2144,16 +2156,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2161,30 +2173,33 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
       <c r="C44" t="s">
         <v>210</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
+      <c r="D44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2192,7 +2207,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2205,17 +2220,14 @@
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
-        <v>160</v>
-      </c>
       <c r="C46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" t="s">
-        <v>316</v>
+        <v>211</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2223,16 +2235,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2240,16 +2252,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2257,16 +2269,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2274,16 +2286,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2291,16 +2303,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2308,16 +2320,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2325,16 +2337,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2342,16 +2354,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2359,47 +2371,47 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
       <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
       <c r="C57" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" t="s">
-        <v>324</v>
+        <v>209</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2407,78 +2419,78 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" t="s">
-        <v>326</v>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
       <c r="C61" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
-        <v>150</v>
-      </c>
       <c r="C62" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" t="s">
-        <v>230</v>
-      </c>
-      <c r="E62" t="s">
-        <v>306</v>
+        <v>209</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2486,16 +2498,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2503,16 +2515,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2520,16 +2532,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2537,16 +2549,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D66" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2554,16 +2566,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2571,16 +2583,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2588,16 +2600,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2605,47 +2617,47 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
+      <c r="B71" t="s">
+        <v>178</v>
+      </c>
       <c r="C71" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D71" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
       <c r="C72" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" t="s">
-        <v>257</v>
-      </c>
-      <c r="E72" t="s">
-        <v>333</v>
+        <v>210</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2653,16 +2665,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2670,16 +2682,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2687,78 +2699,78 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
       <c r="C76" t="s">
         <v>210</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
+      <c r="D76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" t="s">
-        <v>132</v>
-      </c>
       <c r="C77" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" t="s">
         <v>212</v>
       </c>
-      <c r="E77" t="s">
-        <v>288</v>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
       <c r="C78" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" t="s">
-        <v>179</v>
-      </c>
       <c r="C79" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" t="s">
-        <v>259</v>
-      </c>
-      <c r="E79" t="s">
-        <v>335</v>
+        <v>211</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2766,16 +2778,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2783,16 +2795,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2800,16 +2812,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E82" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2817,16 +2829,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2834,47 +2846,47 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E84" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
       <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D85" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
       <c r="C86" t="s">
-        <v>208</v>
-      </c>
-      <c r="D86" t="s">
-        <v>264</v>
-      </c>
-      <c r="E86" t="s">
-        <v>340</v>
+        <v>209</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2882,47 +2894,47 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" t="s">
-        <v>208</v>
-      </c>
-      <c r="D89" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" t="s">
-        <v>308</v>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2930,47 +2942,47 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="E90" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
       <c r="C91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
+        <v>269</v>
+      </c>
+      <c r="E91" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" t="s">
-        <v>187</v>
-      </c>
       <c r="C92" t="s">
-        <v>208</v>
-      </c>
-      <c r="D92" t="s">
-        <v>267</v>
-      </c>
-      <c r="E92" t="s">
-        <v>343</v>
+        <v>209</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2978,16 +2990,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2995,16 +3007,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="E94" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3012,47 +3024,47 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="E95" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
       <c r="C96" t="s">
-        <v>207</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
-        <v>190</v>
-      </c>
       <c r="C97" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" t="s">
-        <v>270</v>
-      </c>
-      <c r="E97" t="s">
-        <v>346</v>
+        <v>209</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3060,16 +3072,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3077,16 +3089,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3094,16 +3106,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3111,16 +3123,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3128,16 +3140,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3145,78 +3157,78 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s">
+        <v>277</v>
+      </c>
+      <c r="E104" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" t="s">
-        <v>150</v>
-      </c>
-      <c r="C105" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105" t="s">
-        <v>230</v>
-      </c>
-      <c r="E105" t="s">
-        <v>306</v>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
+      <c r="B106" t="s">
+        <v>152</v>
+      </c>
       <c r="C106" t="s">
         <v>210</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
+      <c r="D106" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
-        <v>195</v>
-      </c>
       <c r="C107" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" t="s">
-        <v>275</v>
-      </c>
-      <c r="E107" t="s">
-        <v>351</v>
+        <v>212</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3224,16 +3236,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E108" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3241,16 +3253,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="E109" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3258,16 +3270,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E110" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3275,16 +3287,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3292,16 +3304,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="E112" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3309,78 +3321,78 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
+      <c r="B114" t="s">
+        <v>201</v>
+      </c>
       <c r="C114" t="s">
-        <v>207</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D114" t="s">
+        <v>282</v>
+      </c>
+      <c r="E114" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>200</v>
-      </c>
       <c r="C115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" t="s">
-        <v>280</v>
-      </c>
-      <c r="E115" t="s">
-        <v>356</v>
+        <v>209</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
+      <c r="B116" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" t="s">
-        <v>139</v>
-      </c>
-      <c r="C117" t="s">
-        <v>208</v>
-      </c>
-      <c r="D117" t="s">
-        <v>219</v>
-      </c>
-      <c r="E117" t="s">
-        <v>295</v>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3388,47 +3400,47 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D118" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="E118" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
       <c r="C119" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D119" t="s">
+        <v>284</v>
+      </c>
+      <c r="E119" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" t="s">
-        <v>150</v>
-      </c>
       <c r="C120" t="s">
-        <v>208</v>
-      </c>
-      <c r="D120" t="s">
-        <v>230</v>
-      </c>
-      <c r="E120" t="s">
-        <v>306</v>
+        <v>209</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3436,16 +3448,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D121" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="E121" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3453,16 +3465,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3470,16 +3482,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D123" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="E123" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3487,16 +3499,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E124" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3504,16 +3516,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D125" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="E125" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3521,16 +3533,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="E126" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3538,16 +3550,33 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
+        <v>210</v>
+      </c>
+      <c r="D127" t="s">
+        <v>288</v>
+      </c>
+      <c r="E127" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
         <v>208</v>
       </c>
-      <c r="D127" t="s">
-        <v>286</v>
-      </c>
-      <c r="E127" t="s">
-        <v>362</v>
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" t="s">
+        <v>289</v>
+      </c>
+      <c r="E128" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
   <si>
     <t>source_file_name</t>
   </si>
@@ -208,6 +208,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-21-january-2022_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-21-june-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-21-october-2022.pdf</t>
   </si>
   <si>
@@ -293,6 +296,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-28-january-2022.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-28-june-2024.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-28-march-2024.pdf</t>
@@ -1472,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1514,16 +1520,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1531,16 +1537,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1548,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1565,16 +1571,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1582,16 +1588,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1599,16 +1605,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1616,16 +1622,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1633,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1647,16 +1653,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1664,16 +1670,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1681,16 +1687,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1698,16 +1704,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1729,7 +1735,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1743,16 +1749,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1760,16 +1766,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1777,16 +1783,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1794,16 +1800,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1811,16 +1817,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1828,16 +1834,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1845,16 +1851,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1862,7 +1868,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1876,16 +1882,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1893,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1907,16 +1913,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1938,16 +1944,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1955,16 +1961,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1972,16 +1978,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1989,16 +1995,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2006,16 +2012,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2023,16 +2029,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2040,16 +2046,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2057,16 +2063,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2074,16 +2080,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2091,16 +2097,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2108,16 +2114,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2125,7 +2131,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2139,16 +2145,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2156,16 +2162,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2173,16 +2179,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2190,16 +2196,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E44" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2207,7 +2213,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2221,7 +2227,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2235,16 +2241,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2252,16 +2258,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2269,16 +2275,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2286,16 +2292,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2303,16 +2309,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2320,16 +2326,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2337,16 +2343,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E53" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2354,16 +2360,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2371,16 +2377,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2388,16 +2394,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2405,7 +2411,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2419,16 +2425,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2436,16 +2442,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2467,47 +2473,47 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
+      <c r="B62" t="s">
+        <v>174</v>
+      </c>
       <c r="C62" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
-        <v>152</v>
-      </c>
       <c r="C63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" t="s">
-        <v>233</v>
-      </c>
-      <c r="E63" t="s">
-        <v>310</v>
+        <v>211</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2515,16 +2521,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2532,16 +2538,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2549,16 +2555,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2566,16 +2572,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2583,16 +2589,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2600,16 +2606,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E69" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2617,16 +2623,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2634,47 +2640,47 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
       <c r="C72" t="s">
-        <v>210</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
       <c r="C73" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" t="s">
-        <v>260</v>
-      </c>
-      <c r="E73" t="s">
-        <v>337</v>
+        <v>212</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2682,16 +2688,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2699,16 +2705,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E75" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2716,78 +2722,78 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
       <c r="C77" t="s">
         <v>212</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
+      <c r="D77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
       <c r="C78" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" t="s">
         <v>214</v>
       </c>
-      <c r="E78" t="s">
-        <v>291</v>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
       <c r="C79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>181</v>
-      </c>
       <c r="C80" t="s">
-        <v>210</v>
-      </c>
-      <c r="D80" t="s">
-        <v>262</v>
-      </c>
-      <c r="E80" t="s">
-        <v>339</v>
+        <v>213</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2795,16 +2801,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2812,16 +2818,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="E82" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2829,16 +2835,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E83" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2846,16 +2852,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2863,47 +2869,47 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
       <c r="C86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" t="s">
-        <v>186</v>
-      </c>
       <c r="C87" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" t="s">
-        <v>267</v>
-      </c>
-      <c r="E87" t="s">
-        <v>344</v>
+        <v>211</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2911,47 +2917,47 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" t="s">
-        <v>210</v>
-      </c>
-      <c r="D90" t="s">
-        <v>235</v>
-      </c>
-      <c r="E90" t="s">
-        <v>312</v>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2959,30 +2965,33 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="E91" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
       <c r="C92" t="s">
-        <v>209</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2990,33 +2999,30 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
       <c r="C94" t="s">
-        <v>210</v>
-      </c>
-      <c r="D94" t="s">
-        <v>271</v>
-      </c>
-      <c r="E94" t="s">
-        <v>348</v>
+        <v>211</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3024,16 +3030,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3041,30 +3047,33 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
+      <c r="B97" t="s">
+        <v>138</v>
+      </c>
       <c r="C97" t="s">
-        <v>209</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D97" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3072,33 +3081,30 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E98" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>143</v>
-      </c>
       <c r="C99" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" t="s">
-        <v>224</v>
-      </c>
-      <c r="E99" t="s">
-        <v>301</v>
+        <v>211</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3106,16 +3112,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3123,16 +3129,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3143,7 +3149,7 @@
         <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D102" t="s">
         <v>276</v>
@@ -3157,16 +3163,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3174,30 +3180,33 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E104" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3205,24 +3214,24 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="C107" t="s">
-        <v>212</v>
+      <c r="C107">
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3236,33 +3245,30 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="E108" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" t="s">
-        <v>154</v>
-      </c>
       <c r="C109" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" t="s">
-        <v>235</v>
-      </c>
-      <c r="E109" t="s">
-        <v>312</v>
+        <v>214</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3270,16 +3276,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3287,16 +3293,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="E111" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3307,7 +3313,7 @@
         <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D112" t="s">
         <v>281</v>
@@ -3321,16 +3327,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E113" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3338,30 +3344,33 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E114" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
+      <c r="B115" t="s">
+        <v>148</v>
+      </c>
       <c r="C115" t="s">
-        <v>209</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D115" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3369,24 +3378,24 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E116" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="C117">
-        <v>0</v>
+      <c r="C117" t="s">
+        <v>211</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3400,47 +3409,47 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D118" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" t="s">
-        <v>210</v>
-      </c>
-      <c r="D119" t="s">
-        <v>284</v>
-      </c>
-      <c r="E119" t="s">
-        <v>361</v>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
       <c r="C120" t="s">
-        <v>209</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D120" t="s">
+        <v>223</v>
+      </c>
+      <c r="E120" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3448,33 +3457,30 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" t="s">
-        <v>204</v>
-      </c>
       <c r="C122" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" t="s">
-        <v>285</v>
-      </c>
-      <c r="E122" t="s">
-        <v>362</v>
+        <v>211</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3485,7 +3491,7 @@
         <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D123" t="s">
         <v>235</v>
@@ -3499,16 +3505,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E124" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3516,16 +3522,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D125" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="E125" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3533,16 +3539,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D126" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3550,16 +3556,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D127" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E127" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3567,16 +3573,50 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="C128" t="s">
+        <v>212</v>
+      </c>
+      <c r="D128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
         <v>210</v>
       </c>
-      <c r="D128" t="s">
-        <v>289</v>
-      </c>
-      <c r="E128" t="s">
-        <v>366</v>
+      <c r="C130" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130" t="s">
+        <v>291</v>
+      </c>
+      <c r="E130" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="370">
   <si>
     <t>source_file_name</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-5-august-2022_0.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-5-july-2024.pdf</t>
   </si>
   <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-5-may-2023.pdf</t>
@@ -1478,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1520,16 +1523,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1537,16 +1540,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1554,16 +1557,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1571,16 +1574,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1588,16 +1591,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1605,16 +1608,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1622,16 +1625,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1639,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1653,16 +1656,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1670,16 +1673,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1687,16 +1690,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1704,16 +1707,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1735,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1749,16 +1752,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1766,16 +1769,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1783,16 +1786,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1800,16 +1803,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1817,16 +1820,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1834,16 +1837,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1851,16 +1854,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1868,7 +1871,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1882,16 +1885,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1899,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1913,16 +1916,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1944,16 +1947,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1961,16 +1964,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1978,16 +1981,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1995,16 +1998,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2012,16 +2015,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2029,16 +2032,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2046,16 +2049,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2063,16 +2066,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2080,16 +2083,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2097,16 +2100,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2114,16 +2117,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2131,7 +2134,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2145,16 +2148,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2162,16 +2165,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2179,16 +2182,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2196,16 +2199,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2213,7 +2216,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2227,7 +2230,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2241,16 +2244,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2258,16 +2261,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2275,16 +2278,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2292,16 +2295,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2309,16 +2312,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2326,16 +2329,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2343,16 +2346,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2360,16 +2363,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2377,16 +2380,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2394,16 +2397,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2411,7 +2414,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2425,16 +2428,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2442,16 +2445,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2473,16 +2476,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2490,16 +2493,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2507,7 +2510,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2521,16 +2524,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2538,16 +2541,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2555,16 +2558,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2572,16 +2575,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2589,16 +2592,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2606,16 +2609,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2623,16 +2626,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E70" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2640,16 +2643,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2657,16 +2660,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E72" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2674,7 +2677,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2688,16 +2691,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2705,16 +2708,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2722,16 +2725,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2739,16 +2742,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2756,7 +2759,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2770,16 +2773,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2787,7 +2790,7 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2801,16 +2804,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2818,16 +2821,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2835,16 +2838,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2852,16 +2855,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2869,16 +2872,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E85" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2886,16 +2889,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2903,7 +2906,7 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2917,16 +2920,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2934,16 +2937,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2965,16 +2968,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2982,16 +2985,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2999,16 +3002,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3016,7 +3019,7 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3030,16 +3033,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3047,16 +3050,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3064,16 +3067,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3081,16 +3084,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3098,7 +3101,7 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3112,16 +3115,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3129,16 +3132,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3146,16 +3149,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3163,16 +3166,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3180,16 +3183,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3197,16 +3200,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3214,16 +3217,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3245,16 +3248,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E108" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3262,7 +3265,7 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3276,16 +3279,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E110" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3293,16 +3296,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3310,16 +3313,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3327,16 +3330,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="E113" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3347,7 +3350,7 @@
         <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
         <v>283</v>
@@ -3361,16 +3364,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="E115" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3378,78 +3381,78 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D116" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="E116" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
       <c r="C117" t="s">
-        <v>211</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>285</v>
+      </c>
+      <c r="E117" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" t="s">
-        <v>204</v>
-      </c>
       <c r="C118" t="s">
         <v>212</v>
       </c>
-      <c r="D118" t="s">
-        <v>285</v>
-      </c>
-      <c r="E118" t="s">
-        <v>362</v>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
+      <c r="B119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" t="s">
+        <v>213</v>
+      </c>
+      <c r="D119" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" t="s">
-        <v>212</v>
-      </c>
-      <c r="D120" t="s">
-        <v>223</v>
-      </c>
-      <c r="E120" t="s">
-        <v>300</v>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3457,47 +3460,47 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="E121" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
+      <c r="B122" t="s">
+        <v>206</v>
+      </c>
       <c r="C122" t="s">
-        <v>211</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D122" t="s">
+        <v>287</v>
+      </c>
+      <c r="E122" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123" t="s">
-        <v>154</v>
-      </c>
       <c r="C123" t="s">
         <v>212</v>
       </c>
-      <c r="D123" t="s">
-        <v>235</v>
-      </c>
-      <c r="E123" t="s">
-        <v>312</v>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3505,16 +3508,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D124" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="E124" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3522,16 +3525,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="E125" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3539,16 +3542,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D126" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="E126" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3559,7 +3562,7 @@
         <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
         <v>289</v>
@@ -3573,16 +3576,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="E128" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3590,16 +3593,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D129" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="E129" t="s">
-        <v>367</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3610,13 +3613,30 @@
         <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D130" t="s">
         <v>291</v>
       </c>
       <c r="E130" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" t="s">
+        <v>292</v>
+      </c>
+      <c r="E131" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="376">
   <si>
     <t>source_file_name</t>
   </si>
@@ -88,6 +88,12 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-12-january-2024.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-12-july-2024.pdf</t>
+  </si>
+  <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-12-july-2024_0.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-12-may-2023_0.pdf</t>
   </si>
   <si>
@@ -178,6 +184,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-19-january-2024_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-19-july-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-19-may-2023.pdf</t>
   </si>
   <si>
@@ -460,6 +469,9 @@
     <t>7  August  2022</t>
   </si>
   <si>
+    <t>30  June  2024</t>
+  </si>
+  <si>
     <t>7  May  2023</t>
   </si>
   <si>
@@ -703,6 +715,9 @@
     <t>21,069</t>
   </si>
   <si>
+    <t>128,418</t>
+  </si>
+  <si>
     <t>62,497</t>
   </si>
   <si>
@@ -932,6 +947,9 @@
   </si>
   <si>
     <t>494</t>
+  </si>
+  <si>
+    <t>15,800</t>
   </si>
   <si>
     <t>4,258</t>
@@ -1481,7 +1499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1523,16 +1541,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1540,16 +1558,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1557,16 +1575,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1574,16 +1592,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1591,16 +1609,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1608,16 +1626,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1625,16 +1643,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1642,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1656,16 +1674,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1673,16 +1691,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1690,16 +1708,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1707,16 +1725,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1738,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1752,16 +1770,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1769,16 +1787,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1786,16 +1804,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1803,16 +1821,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1820,16 +1838,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1837,16 +1855,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1854,30 +1872,33 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
       <c r="C24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1885,16 +1906,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1902,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1916,24 +1937,24 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>216</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1947,33 +1968,30 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" t="s">
-        <v>312</v>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1981,16 +1999,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1998,16 +2016,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2015,16 +2033,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2032,16 +2050,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2049,16 +2067,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2066,16 +2084,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2083,16 +2101,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2100,16 +2118,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2117,30 +2135,33 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
       <c r="C40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2148,33 +2169,30 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
       <c r="C42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E42" t="s">
-        <v>301</v>
+        <v>218</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2182,16 +2200,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2199,78 +2217,78 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
       <c r="C45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
       <c r="C46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>165</v>
-      </c>
       <c r="C47" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" t="s">
-        <v>323</v>
+        <v>219</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
-        <v>146</v>
-      </c>
       <c r="C48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" t="s">
-        <v>304</v>
+        <v>218</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2278,16 +2296,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2295,16 +2313,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2312,16 +2330,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2329,16 +2347,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2346,16 +2364,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2363,16 +2381,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E54" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2380,16 +2398,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2397,30 +2415,33 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E56" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
       <c r="C57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2428,16 +2449,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2445,24 +2466,24 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E59" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" t="s">
+        <v>216</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2476,16 +2497,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2493,24 +2514,24 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="C63" t="s">
-        <v>212</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2524,16 +2545,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2541,33 +2562,30 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
       <c r="C66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" t="s">
-        <v>238</v>
-      </c>
-      <c r="E66" t="s">
-        <v>315</v>
+        <v>216</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2575,16 +2593,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2592,16 +2610,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E68" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2609,16 +2627,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2626,16 +2644,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2643,16 +2661,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2660,30 +2678,33 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
       <c r="C73" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2691,16 +2712,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2708,33 +2729,30 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="E75" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
       <c r="C76" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" t="s">
-        <v>293</v>
+        <v>217</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2742,30 +2760,33 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
       <c r="C78" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2773,47 +2794,47 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
+      <c r="B80" t="s">
+        <v>187</v>
+      </c>
       <c r="C80" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
-        <v>184</v>
-      </c>
       <c r="C81" t="s">
-        <v>213</v>
-      </c>
-      <c r="D81" t="s">
-        <v>265</v>
-      </c>
-      <c r="E81" t="s">
-        <v>342</v>
+        <v>219</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2821,33 +2842,30 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E82" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>185</v>
-      </c>
       <c r="C83" t="s">
-        <v>213</v>
-      </c>
-      <c r="D83" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" t="s">
-        <v>343</v>
+        <v>218</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2855,16 +2873,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E84" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2872,16 +2890,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="E85" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2889,30 +2907,33 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
       <c r="C87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E87" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2920,16 +2941,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E88" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2937,24 +2958,24 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E89" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="C90">
-        <v>0</v>
+      <c r="C90" t="s">
+        <v>216</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2968,16 +2989,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2985,47 +3006,47 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" t="s">
-        <v>213</v>
-      </c>
-      <c r="D93" t="s">
-        <v>272</v>
-      </c>
-      <c r="E93" t="s">
-        <v>349</v>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
+      <c r="B94" t="s">
+        <v>157</v>
+      </c>
       <c r="C94" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3033,16 +3054,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3050,33 +3071,30 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
-        <v>139</v>
-      </c>
       <c r="C97" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" t="s">
-        <v>220</v>
-      </c>
-      <c r="E97" t="s">
-        <v>297</v>
+        <v>216</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3084,30 +3102,33 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
       <c r="C99" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>279</v>
+      </c>
+      <c r="E99" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3115,16 +3136,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="E100" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3132,33 +3153,30 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" t="s">
-        <v>196</v>
-      </c>
       <c r="C102" t="s">
-        <v>213</v>
-      </c>
-      <c r="D102" t="s">
-        <v>277</v>
-      </c>
-      <c r="E102" t="s">
-        <v>354</v>
+        <v>216</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3166,16 +3184,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3183,16 +3201,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3200,16 +3218,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D105" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3217,30 +3235,33 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E106" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
+      <c r="B107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" t="s">
+        <v>284</v>
+      </c>
+      <c r="E107" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3248,47 +3269,47 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E108" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
       <c r="C109" t="s">
-        <v>215</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" t="s">
-        <v>213</v>
-      </c>
-      <c r="D110" t="s">
-        <v>281</v>
-      </c>
-      <c r="E110" t="s">
-        <v>358</v>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3296,33 +3317,30 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D111" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E111" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" t="s">
-        <v>201</v>
-      </c>
       <c r="C112" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" t="s">
-        <v>282</v>
-      </c>
-      <c r="E112" t="s">
-        <v>359</v>
+        <v>219</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3330,16 +3348,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="E113" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3347,16 +3365,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="E114" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3364,16 +3382,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E115" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3381,16 +3399,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E116" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3398,30 +3416,33 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E117" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>121</v>
       </c>
+      <c r="B118" t="s">
+        <v>207</v>
+      </c>
       <c r="C118" t="s">
-        <v>212</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="D118" t="s">
+        <v>289</v>
+      </c>
+      <c r="E118" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3429,47 +3450,47 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D119" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="E119" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
+      <c r="B120" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" t="s">
+        <v>290</v>
+      </c>
+      <c r="E120" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
       <c r="C121" t="s">
-        <v>213</v>
-      </c>
-      <c r="D121" t="s">
-        <v>224</v>
-      </c>
-      <c r="E121" t="s">
-        <v>301</v>
+        <v>216</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3477,24 +3498,24 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D122" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="C123" t="s">
-        <v>212</v>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3508,16 +3529,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D124" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3525,33 +3546,30 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D125" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E125" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="s">
-        <v>157</v>
-      </c>
       <c r="C126" t="s">
-        <v>213</v>
-      </c>
-      <c r="D126" t="s">
-        <v>238</v>
-      </c>
-      <c r="E126" t="s">
-        <v>315</v>
+        <v>216</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3559,16 +3577,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="E127" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3576,16 +3594,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D128" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E128" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3593,16 +3611,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E129" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3610,16 +3628,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C130" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E130" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3627,16 +3645,67 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D131" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E131" t="s">
-        <v>369</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132" t="s">
+        <v>223</v>
+      </c>
+      <c r="E132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" t="s">
+        <v>217</v>
+      </c>
+      <c r="D133" t="s">
+        <v>296</v>
+      </c>
+      <c r="E133" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>215</v>
+      </c>
+      <c r="C134" t="s">
+        <v>217</v>
+      </c>
+      <c r="D134" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="382">
   <si>
     <t>source_file_name</t>
   </si>
@@ -190,6 +190,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-19-may-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-2-august-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-2-december-2022.pdf</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-august-2022_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-july-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-26-may-2023_0.pdf</t>
   </si>
   <si>
@@ -418,6 +424,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-8-september-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-9-august-2024_0.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-9-december-2022.pdf</t>
   </si>
   <si>
@@ -655,6 +664,9 @@
     <t>3  September  2023</t>
   </si>
   <si>
+    <t>31  July  2024</t>
+  </si>
+  <si>
     <t>4  December  2022</t>
   </si>
   <si>
@@ -901,6 +913,9 @@
     <t>76,739</t>
   </si>
   <si>
+    <t>133,476</t>
+  </si>
+  <si>
     <t>37,200</t>
   </si>
   <si>
@@ -1133,6 +1148,9 @@
   </si>
   <si>
     <t>6,319</t>
+  </si>
+  <si>
+    <t>17,088</t>
   </si>
   <si>
     <t>1,145</t>
@@ -1499,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1541,16 +1559,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1558,16 +1576,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1575,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1592,16 +1610,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1609,16 +1627,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1626,16 +1644,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1643,16 +1661,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1660,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1674,16 +1692,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1691,16 +1709,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1708,16 +1726,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1725,16 +1743,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1756,7 +1774,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1770,16 +1788,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1787,16 +1805,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1804,16 +1822,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1821,16 +1839,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1838,16 +1856,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1855,16 +1873,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1872,16 +1890,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1889,16 +1907,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1906,16 +1924,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1923,7 +1941,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1937,16 +1955,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1954,7 +1972,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1968,16 +1986,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1999,16 +2017,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2016,16 +2034,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2033,16 +2051,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2050,16 +2068,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2067,16 +2085,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2084,16 +2102,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2101,16 +2119,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2118,16 +2136,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2135,16 +2153,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2152,16 +2170,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2169,16 +2187,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2186,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2200,16 +2218,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E43" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2217,16 +2235,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2234,16 +2252,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2251,16 +2269,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2268,7 +2286,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2282,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2296,16 +2314,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2313,16 +2331,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2330,16 +2348,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2347,16 +2365,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2364,16 +2382,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2381,16 +2399,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2398,16 +2416,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2415,16 +2433,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E56" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2432,16 +2450,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2449,16 +2467,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2466,47 +2484,47 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E59" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
+      <c r="B60" t="s">
+        <v>179</v>
+      </c>
       <c r="C60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
-        <v>177</v>
-      </c>
       <c r="C61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" t="s">
-        <v>337</v>
+        <v>220</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2514,47 +2532,47 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E62" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>217</v>
-      </c>
-      <c r="D64" t="s">
-        <v>239</v>
-      </c>
-      <c r="E64" t="s">
-        <v>317</v>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2562,47 +2580,47 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
       <c r="C66" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
       <c r="C67" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" t="s">
-        <v>319</v>
+        <v>220</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2610,16 +2628,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2627,16 +2645,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E69" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2644,16 +2662,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2661,16 +2679,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2678,16 +2696,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2695,16 +2713,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="E73" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2712,16 +2730,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E74" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2729,47 +2747,47 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
       <c r="C76" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D76" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" t="s">
-        <v>186</v>
-      </c>
       <c r="C77" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" t="s">
-        <v>268</v>
-      </c>
-      <c r="E77" t="s">
-        <v>346</v>
+        <v>221</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2777,16 +2795,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2794,16 +2812,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2811,78 +2829,78 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
+      <c r="B81" t="s">
+        <v>190</v>
+      </c>
       <c r="C81" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D81" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
-        <v>139</v>
-      </c>
       <c r="C82" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" t="s">
-        <v>221</v>
-      </c>
-      <c r="E82" t="s">
-        <v>299</v>
+        <v>223</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
       <c r="C83" t="s">
-        <v>218</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>188</v>
-      </c>
       <c r="C84" t="s">
-        <v>217</v>
-      </c>
-      <c r="D84" t="s">
-        <v>270</v>
-      </c>
-      <c r="E84" t="s">
-        <v>348</v>
+        <v>222</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2890,16 +2908,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2907,16 +2925,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="E86" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2924,16 +2942,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2941,16 +2959,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2958,30 +2976,33 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
       <c r="C90" t="s">
-        <v>216</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D90" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2989,47 +3010,47 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E91" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" t="s">
-        <v>194</v>
-      </c>
       <c r="C92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" t="s">
-        <v>276</v>
-      </c>
-      <c r="E92" t="s">
-        <v>354</v>
+        <v>220</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3037,33 +3058,30 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
-        <v>161</v>
-      </c>
-      <c r="C95" t="s">
-        <v>217</v>
-      </c>
-      <c r="D95" t="s">
-        <v>243</v>
-      </c>
-      <c r="E95" t="s">
-        <v>321</v>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3071,30 +3089,33 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="E96" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
+      <c r="B97" t="s">
+        <v>164</v>
+      </c>
       <c r="C97" t="s">
-        <v>216</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3102,33 +3123,30 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E98" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>197</v>
-      </c>
       <c r="C99" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" t="s">
-        <v>279</v>
-      </c>
-      <c r="E99" t="s">
-        <v>357</v>
+        <v>220</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3136,16 +3154,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3153,30 +3171,33 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
       <c r="C102" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3184,33 +3205,30 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E103" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
-        <v>149</v>
-      </c>
       <c r="C104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" t="s">
-        <v>231</v>
-      </c>
-      <c r="E104" t="s">
-        <v>309</v>
+        <v>220</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3218,16 +3236,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E105" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3235,16 +3253,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="E106" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3252,16 +3270,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3269,16 +3287,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D108" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="E108" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3286,30 +3304,33 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
+      <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3317,24 +3338,24 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="C112" t="s">
-        <v>219</v>
+      <c r="C112">
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3348,33 +3369,30 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="E113" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" t="s">
-        <v>161</v>
-      </c>
       <c r="C114" t="s">
-        <v>217</v>
-      </c>
-      <c r="D114" t="s">
-        <v>243</v>
-      </c>
-      <c r="E114" t="s">
-        <v>321</v>
+        <v>223</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3382,16 +3400,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E115" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3399,16 +3417,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E116" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3416,16 +3434,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E117" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3433,16 +3451,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="E118" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3450,16 +3468,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3467,30 +3485,33 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D120" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E120" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>124</v>
       </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
       <c r="C121" t="s">
-        <v>216</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D121" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3498,24 +3519,24 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E122" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="C123">
-        <v>0</v>
+      <c r="C123" t="s">
+        <v>220</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3529,47 +3550,47 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="E124" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>128</v>
       </c>
-      <c r="B125" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" t="s">
-        <v>217</v>
-      </c>
-      <c r="D125" t="s">
-        <v>292</v>
-      </c>
-      <c r="E125" t="s">
-        <v>370</v>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
       <c r="C126" t="s">
-        <v>216</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="D126" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3577,33 +3598,30 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E127" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128" t="s">
-        <v>211</v>
-      </c>
       <c r="C128" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" t="s">
-        <v>293</v>
-      </c>
-      <c r="E128" t="s">
-        <v>371</v>
+        <v>220</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3611,16 +3629,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D129" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E129" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3628,16 +3646,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E130" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3645,16 +3663,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D131" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="E131" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3662,16 +3680,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D132" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="E132" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3679,16 +3697,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E133" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3696,16 +3714,67 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D134" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E134" t="s">
-        <v>375</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" t="s">
+        <v>221</v>
+      </c>
+      <c r="D135" t="s">
+        <v>227</v>
+      </c>
+      <c r="E135" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" t="s">
+        <v>221</v>
+      </c>
+      <c r="D136" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" t="s">
+        <v>302</v>
+      </c>
+      <c r="E137" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="386">
   <si>
     <t>source_file_name</t>
   </si>
@@ -136,6 +136,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-15-september-2023_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-16-august-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-16-december-2022_0.pdf</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-22-september-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-23-august-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-23-december-2022.pdf</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-3-november-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-30-august-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-30-september-2022-covid-19-outbreaks-in-australian-residential-aged-care-facilities-30-sept-2022_1.pdf</t>
   </si>
   <si>
@@ -400,6 +409,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-6-october-2023_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-6-september-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-7-january-2022_0.pdf</t>
   </si>
   <si>
@@ -514,6 +526,9 @@
     <t>10  September  2023</t>
   </si>
   <si>
+    <t>31  July  2024</t>
+  </si>
+  <si>
     <t>11  December  2022</t>
   </si>
   <si>
@@ -664,9 +679,6 @@
     <t>3  September  2023</t>
   </si>
   <si>
-    <t>31  July  2024</t>
-  </si>
-  <si>
     <t>4  December  2022</t>
   </si>
   <si>
@@ -763,6 +775,9 @@
     <t>77,154</t>
   </si>
   <si>
+    <t>133,476</t>
+  </si>
+  <si>
     <t>39,112</t>
   </si>
   <si>
@@ -913,9 +928,6 @@
     <t>76,739</t>
   </si>
   <si>
-    <t>133,476</t>
-  </si>
-  <si>
     <t>37,200</t>
   </si>
   <si>
@@ -1000,6 +1012,9 @@
     <t>6,367</t>
   </si>
   <si>
+    <t>17,088</t>
+  </si>
+  <si>
     <t>1,358</t>
   </si>
   <si>
@@ -1148,9 +1163,6 @@
   </si>
   <si>
     <t>6,319</t>
-  </si>
-  <si>
-    <t>17,088</t>
   </si>
   <si>
     <t>1,145</t>
@@ -1517,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1545,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1559,16 +1571,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1576,16 +1588,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1593,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1610,16 +1622,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1627,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1644,16 +1656,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1661,16 +1673,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1678,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1692,16 +1704,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1709,16 +1721,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1726,16 +1738,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1743,16 +1755,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1774,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1788,16 +1800,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1805,16 +1817,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1822,16 +1834,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1839,16 +1851,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1856,16 +1868,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1873,16 +1885,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1890,16 +1902,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1907,16 +1919,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1924,16 +1936,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1941,7 +1953,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1955,16 +1967,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E27" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1972,7 +1984,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1986,16 +1998,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2017,16 +2029,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2034,16 +2046,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2051,16 +2063,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2068,16 +2080,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2085,16 +2097,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2102,16 +2114,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2119,16 +2131,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2136,16 +2148,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2153,16 +2165,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2170,16 +2182,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2187,47 +2199,47 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
       <c r="C42" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
-        <v>170</v>
-      </c>
       <c r="C43" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" t="s">
-        <v>332</v>
+        <v>226</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2235,16 +2247,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E44" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2252,16 +2264,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2269,30 +2281,33 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
       <c r="C47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D47" t="s">
+        <v>259</v>
+      </c>
+      <c r="E47" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2300,7 +2315,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2313,17 +2328,14 @@
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>172</v>
-      </c>
       <c r="C49" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" t="s">
-        <v>334</v>
+        <v>226</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2331,16 +2343,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2348,16 +2360,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2365,16 +2377,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2382,16 +2394,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2399,16 +2411,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2416,16 +2428,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2433,16 +2445,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2450,16 +2462,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2467,16 +2479,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2484,16 +2496,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E59" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2501,47 +2513,47 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
       <c r="C61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D61" t="s">
+        <v>267</v>
+      </c>
+      <c r="E61" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
-        <v>180</v>
-      </c>
       <c r="C62" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E62" t="s">
-        <v>342</v>
+        <v>224</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2549,47 +2561,47 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" t="s">
-        <v>243</v>
-      </c>
-      <c r="E65" t="s">
-        <v>322</v>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2597,47 +2609,47 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E66" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
       <c r="C67" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
-        <v>162</v>
-      </c>
       <c r="C68" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" t="s">
-        <v>245</v>
-      </c>
-      <c r="E68" t="s">
-        <v>324</v>
+        <v>224</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2645,16 +2657,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D69" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2662,16 +2674,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2679,16 +2691,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E71" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2696,16 +2708,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E72" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2713,16 +2725,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2730,16 +2742,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2747,16 +2759,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E75" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2764,30 +2776,33 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
+      <c r="B77" t="s">
+        <v>192</v>
+      </c>
       <c r="C77" t="s">
-        <v>221</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D77" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2795,33 +2810,30 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" t="s">
-        <v>149</v>
-      </c>
       <c r="C79" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" t="s">
-        <v>232</v>
-      </c>
-      <c r="E79" t="s">
-        <v>311</v>
+        <v>225</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2829,16 +2841,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2846,30 +2858,33 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
       <c r="C82" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2877,16 +2892,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2894,7 +2909,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2908,33 +2923,30 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
-        <v>152</v>
-      </c>
       <c r="C86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" t="s">
-        <v>235</v>
-      </c>
-      <c r="E86" t="s">
-        <v>314</v>
+        <v>226</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2942,16 +2954,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D87" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2959,16 +2971,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2976,16 +2988,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2993,16 +3005,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="E90" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3010,30 +3022,33 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
       <c r="C92" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D92" t="s">
+        <v>282</v>
+      </c>
+      <c r="E92" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3041,47 +3056,47 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
-        <v>197</v>
-      </c>
       <c r="C94" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" t="s">
-        <v>280</v>
-      </c>
-      <c r="E94" t="s">
-        <v>359</v>
+        <v>224</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" t="s">
+        <v>284</v>
+      </c>
+      <c r="E95" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3089,33 +3104,30 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E96" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" t="s">
-        <v>247</v>
-      </c>
-      <c r="E97" t="s">
-        <v>326</v>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3123,30 +3135,33 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D98" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="E98" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
       <c r="C99" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3154,33 +3169,30 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E100" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
-        <v>200</v>
-      </c>
       <c r="C101" t="s">
-        <v>221</v>
-      </c>
-      <c r="D101" t="s">
-        <v>283</v>
-      </c>
-      <c r="E101" t="s">
-        <v>362</v>
+        <v>224</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3188,16 +3200,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="E102" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3205,30 +3217,33 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
+      <c r="B104" t="s">
+        <v>149</v>
+      </c>
       <c r="C104" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3236,33 +3251,30 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E105" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" t="s">
-        <v>152</v>
-      </c>
       <c r="C106" t="s">
-        <v>221</v>
-      </c>
-      <c r="D106" t="s">
-        <v>235</v>
-      </c>
-      <c r="E106" t="s">
-        <v>314</v>
+        <v>224</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3270,16 +3282,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D107" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E107" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3287,16 +3299,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D108" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3304,16 +3316,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3321,16 +3333,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3338,30 +3350,33 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D111" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E111" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
+      <c r="B112" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3369,47 +3384,47 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D113" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E113" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
+      <c r="B114" t="s">
+        <v>211</v>
+      </c>
       <c r="C114" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D114" t="s">
+        <v>294</v>
+      </c>
+      <c r="E114" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>207</v>
-      </c>
-      <c r="C115" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" t="s">
-        <v>290</v>
-      </c>
-      <c r="E115" t="s">
-        <v>369</v>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3417,33 +3432,30 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E116" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" t="s">
-        <v>208</v>
-      </c>
       <c r="C117" t="s">
-        <v>221</v>
-      </c>
-      <c r="D117" t="s">
-        <v>291</v>
-      </c>
-      <c r="E117" t="s">
-        <v>370</v>
+        <v>227</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3451,16 +3463,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D118" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="E118" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3468,16 +3480,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D119" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="E119" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3485,16 +3497,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D120" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E120" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3502,16 +3514,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D121" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E121" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3519,30 +3531,33 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D122" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E122" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
+      <c r="B123" t="s">
+        <v>215</v>
+      </c>
       <c r="C123" t="s">
-        <v>220</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D123" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3550,47 +3565,47 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="E124" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>128</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
+      <c r="B125" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" t="s">
+        <v>299</v>
+      </c>
+      <c r="E125" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="s">
-        <v>149</v>
-      </c>
       <c r="C126" t="s">
-        <v>221</v>
-      </c>
-      <c r="D126" t="s">
-        <v>232</v>
-      </c>
-      <c r="E126" t="s">
-        <v>311</v>
+        <v>224</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3598,47 +3613,47 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E127" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>131</v>
       </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
       <c r="C128" t="s">
-        <v>220</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="D128" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>132</v>
       </c>
-      <c r="B129" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" t="s">
-        <v>221</v>
-      </c>
-      <c r="D129" t="s">
-        <v>245</v>
-      </c>
-      <c r="E129" t="s">
-        <v>324</v>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3646,16 +3661,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D130" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="E130" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3663,33 +3678,30 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D131" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="E131" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B132" t="s">
-        <v>215</v>
-      </c>
       <c r="C132" t="s">
-        <v>221</v>
-      </c>
-      <c r="D132" t="s">
-        <v>298</v>
-      </c>
-      <c r="E132" t="s">
-        <v>377</v>
+        <v>224</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3697,16 +3709,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C133" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D133" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="E133" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3714,16 +3726,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D134" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E134" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3731,16 +3743,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D135" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E135" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3748,16 +3760,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D136" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E136" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3765,16 +3777,84 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
+        <v>225</v>
+      </c>
+      <c r="D137" t="s">
+        <v>253</v>
+      </c>
+      <c r="E137" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
         <v>221</v>
       </c>
-      <c r="D137" t="s">
-        <v>302</v>
-      </c>
-      <c r="E137" t="s">
-        <v>381</v>
+      <c r="C138" t="s">
+        <v>225</v>
+      </c>
+      <c r="D138" t="s">
+        <v>304</v>
+      </c>
+      <c r="E138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" t="s">
+        <v>231</v>
+      </c>
+      <c r="E139" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>222</v>
+      </c>
+      <c r="C140" t="s">
+        <v>225</v>
+      </c>
+      <c r="D140" t="s">
+        <v>305</v>
+      </c>
+      <c r="E140" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" t="s">
+        <v>306</v>
+      </c>
+      <c r="E141" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/health-aged-care/health-aged-care.xlsx
+++ b/health-aged-care/health-aged-care.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="391">
   <si>
     <t>source_file_name</t>
   </si>
@@ -109,6 +109,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-13-october-2023_0.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-13-september-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-14-april-2022.pdf</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-20-october-2023.pdf</t>
   </si>
   <si>
+    <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-20-september-2024.pdf</t>
+  </si>
+  <si>
     <t>covid-19-outbreaks-in-australian-residential-aged-care-facilities-21-april-2023.pdf</t>
   </si>
   <si>
@@ -505,6 +511,9 @@
     <t>8  October  2023</t>
   </si>
   <si>
+    <t>31  August  2024</t>
+  </si>
+  <si>
     <t>9  April  2023</t>
   </si>
   <si>
@@ -754,6 +763,9 @@
     <t>79,346</t>
   </si>
   <si>
+    <t>136,524</t>
+  </si>
+  <si>
     <t>57,713</t>
   </si>
   <si>
@@ -989,6 +1001,9 @@
   </si>
   <si>
     <t>6,618</t>
+  </si>
+  <si>
+    <t>17,798</t>
   </si>
   <si>
     <t>3,571</t>
@@ -1529,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1571,16 +1586,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1588,16 +1603,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1605,16 +1620,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1622,16 +1637,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1639,16 +1654,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1656,16 +1671,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1673,16 +1688,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1690,7 +1705,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1704,16 +1719,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1721,16 +1736,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1738,16 +1753,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1755,16 +1770,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1786,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1800,16 +1815,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1817,16 +1832,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1834,16 +1849,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1851,16 +1866,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1868,16 +1883,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1885,16 +1900,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1902,16 +1917,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1919,16 +1934,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1936,16 +1951,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1953,7 +1968,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1967,78 +1982,78 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
       <c r="C28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
       <c r="C29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" t="s">
-        <v>325</v>
+        <v>227</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E31" t="s">
-        <v>326</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2046,16 +2061,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2063,16 +2078,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2080,16 +2095,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2097,16 +2112,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2114,16 +2129,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E36" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2131,16 +2146,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2148,16 +2163,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2165,16 +2180,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E39" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2182,16 +2197,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2199,16 +2214,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2216,47 +2231,47 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
       <c r="C43" t="s">
-        <v>226</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>175</v>
-      </c>
       <c r="C44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" t="s">
-        <v>337</v>
+        <v>229</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2264,16 +2279,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2281,16 +2296,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2298,30 +2313,33 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
       <c r="C48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2329,7 +2347,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2342,17 +2360,14 @@
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" t="s">
-        <v>177</v>
-      </c>
       <c r="C50" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" t="s">
-        <v>339</v>
+        <v>229</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2360,16 +2375,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2377,16 +2392,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2394,16 +2409,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="E53" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2411,16 +2426,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2428,16 +2443,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E55" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2445,16 +2460,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E56" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2462,16 +2477,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2479,16 +2494,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E58" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2496,16 +2511,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2513,16 +2528,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E60" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2530,47 +2545,47 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
       <c r="C62" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D62" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
-        <v>185</v>
-      </c>
       <c r="C63" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" t="s">
-        <v>268</v>
-      </c>
-      <c r="E63" t="s">
-        <v>347</v>
+        <v>227</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2578,30 +2593,33 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" t="s">
+        <v>249</v>
+      </c>
+      <c r="E65" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2609,47 +2627,47 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" t="s">
-        <v>225</v>
-      </c>
-      <c r="D67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E67" t="s">
-        <v>349</v>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
       <c r="C68" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D68" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2657,33 +2675,30 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
-        <v>188</v>
-      </c>
       <c r="C70" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" t="s">
-        <v>271</v>
-      </c>
-      <c r="E70" t="s">
-        <v>350</v>
+        <v>227</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2691,16 +2706,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2708,16 +2723,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2725,16 +2740,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E73" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2742,16 +2757,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2759,16 +2774,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2776,16 +2791,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2793,16 +2808,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="E77" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2810,30 +2825,33 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E78" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
       <c r="C79" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D79" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2841,33 +2859,30 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
-        <v>153</v>
-      </c>
       <c r="C81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" t="s">
-        <v>315</v>
+        <v>228</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2875,16 +2890,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2892,30 +2907,33 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
       <c r="C84" t="s">
-        <v>227</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D84" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2923,16 +2941,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2940,7 +2958,7 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2954,33 +2972,30 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="E87" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
-        <v>156</v>
-      </c>
       <c r="C88" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E88" t="s">
-        <v>318</v>
+        <v>229</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2988,16 +3003,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E89" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3008,13 +3023,13 @@
         <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E90" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3022,16 +3037,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D91" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E91" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3039,16 +3054,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="E92" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3056,30 +3071,33 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E93" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
       <c r="C94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3087,47 +3105,47 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D95" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E95" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
-        <v>202</v>
-      </c>
       <c r="C96" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" t="s">
-        <v>285</v>
-      </c>
-      <c r="E96" t="s">
-        <v>364</v>
+        <v>227</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" t="s">
+        <v>288</v>
+      </c>
+      <c r="E97" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3135,33 +3153,30 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" t="s">
-        <v>225</v>
-      </c>
-      <c r="D99" t="s">
-        <v>251</v>
-      </c>
-      <c r="E99" t="s">
-        <v>330</v>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3169,30 +3184,33 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
+      <c r="B101" t="s">
+        <v>171</v>
+      </c>
       <c r="C101" t="s">
-        <v>224</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D101" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3200,33 +3218,30 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D102" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E102" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" t="s">
-        <v>205</v>
-      </c>
       <c r="C103" t="s">
-        <v>225</v>
-      </c>
-      <c r="D103" t="s">
-        <v>288</v>
-      </c>
-      <c r="E103" t="s">
-        <v>367</v>
+        <v>227</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3234,16 +3249,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3251,30 +3266,33 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
       <c r="C106" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D106" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3282,33 +3300,30 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E107" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" t="s">
-        <v>156</v>
-      </c>
       <c r="C108" t="s">
-        <v>225</v>
-      </c>
-      <c r="D108" t="s">
-        <v>239</v>
-      </c>
-      <c r="E108" t="s">
-        <v>318</v>
+        <v>227</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3316,16 +3331,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3333,16 +3348,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D110" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E110" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3350,16 +3365,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D111" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E111" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3367,16 +3382,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D112" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E112" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3384,16 +3399,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="E113" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3401,30 +3416,33 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D114" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E114" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
+      <c r="B115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" t="s">
+        <v>239</v>
+      </c>
+      <c r="E115" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3432,24 +3450,24 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="C117" t="s">
-        <v>227</v>
+      <c r="C117">
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3463,33 +3481,30 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D118" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="E118" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" t="s">
-        <v>168</v>
-      </c>
       <c r="C119" t="s">
-        <v>225</v>
-      </c>
-      <c r="D119" t="s">
-        <v>251</v>
-      </c>
-      <c r="E119" t="s">
-        <v>330</v>
+        <v>230</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3497,16 +3512,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E120" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3514,16 +3529,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E121" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3531,16 +3546,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D122" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3548,16 +3563,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D123" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="E123" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3565,16 +3580,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3582,30 +3597,33 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D125" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E125" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
+      <c r="B126" t="s">
+        <v>162</v>
+      </c>
       <c r="C126" t="s">
-        <v>224</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D126" t="s">
+        <v>246</v>
+      </c>
+      <c r="E126" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3613,47 +3631,47 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E127" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128" t="s">
-        <v>170</v>
-      </c>
       <c r="C128" t="s">
-        <v>225</v>
-      </c>
-      <c r="D128" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" t="s">
-        <v>332</v>
+        <v>227</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>132</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
+      <c r="B129" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" t="s">
+        <v>304</v>
+      </c>
+      <c r="E129" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3661,47 +3679,47 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D130" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="E130" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131" t="s">
-        <v>218</v>
-      </c>
-      <c r="C131" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" t="s">
-        <v>301</v>
-      </c>
-      <c r="E131" t="s">
-        <v>380</v>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>135</v>
       </c>
+      <c r="B132" t="s">
+        <v>155</v>
+      </c>
       <c r="C132" t="s">
-        <v>224</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="D132" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3709,33 +3727,30 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D133" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E133" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>137</v>
       </c>
-      <c r="B134" t="s">
-        <v>219</v>
-      </c>
       <c r="C134" t="s">
-        <v>225</v>
-      </c>
-      <c r="D134" t="s">
-        <v>302</v>
-      </c>
-      <c r="E134" t="s">
-        <v>381</v>
+        <v>227</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3743,16 +3758,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D135" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E135" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3760,16 +3775,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D136" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E136" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3777,16 +3792,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D137" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E137" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3794,16 +3809,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D138" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E138" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3811,16 +3826,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C139" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D139" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="E139" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3828,16 +3843,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E140" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3845,16 +3860,50 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="C141" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" t="s">
+        <v>234</v>
+      </c>
+      <c r="E141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
         <v>225</v>
       </c>
-      <c r="D141" t="s">
-        <v>306</v>
-      </c>
-      <c r="E141" t="s">
-        <v>385</v>
+      <c r="C142" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" t="s">
+        <v>309</v>
+      </c>
+      <c r="E142" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" t="s">
+        <v>228</v>
+      </c>
+      <c r="D143" t="s">
+        <v>310</v>
+      </c>
+      <c r="E143" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
